--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -540,6 +540,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -552,7 +585,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,50 +594,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,23 +779,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="300392344"/>
-        <c:axId val="300395384"/>
+        <c:axId val="468494680"/>
+        <c:axId val="467886648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300392344"/>
+        <c:axId val="468494680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300395384"/>
+        <c:crossAx val="467886648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300395384"/>
+        <c:axId val="467886648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +803,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300392344"/>
+        <c:crossAx val="468494680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1180,22 +1180,22 @@
   <dimension ref="A1:AZ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ21" sqref="AZ21"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1510,82 +1510,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="28" t="s">
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="30"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="24"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="23"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1631,163 +1631,163 @@
       <c r="AE20" s="4">
         <v>14</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AF20" s="19">
         <v>15</v>
       </c>
-      <c r="AG20" s="36">
+      <c r="AG20" s="19">
         <v>16</v>
       </c>
-      <c r="AH20" s="36">
+      <c r="AH20" s="19">
         <v>17</v>
       </c>
-      <c r="AI20" s="36">
+      <c r="AI20" s="19">
         <v>18</v>
       </c>
-      <c r="AJ20" s="36">
+      <c r="AJ20" s="19">
         <v>19</v>
       </c>
-      <c r="AK20" s="36">
+      <c r="AK20" s="19">
         <v>20</v>
       </c>
-      <c r="AL20" s="36">
+      <c r="AL20" s="19">
         <v>21</v>
       </c>
-      <c r="AM20" s="36">
+      <c r="AM20" s="19">
         <v>22</v>
       </c>
-      <c r="AN20" s="36">
+      <c r="AN20" s="19">
         <v>23</v>
       </c>
-      <c r="AO20" s="36">
+      <c r="AO20" s="19">
         <v>24</v>
       </c>
-      <c r="AP20" s="36">
+      <c r="AP20" s="19">
         <v>25</v>
       </c>
-      <c r="AQ20" s="36">
+      <c r="AQ20" s="19">
         <v>26</v>
       </c>
-      <c r="AR20" s="36">
+      <c r="AR20" s="19">
         <v>27</v>
       </c>
-      <c r="AS20" s="36">
+      <c r="AS20" s="19">
         <v>28</v>
       </c>
-      <c r="AT20" s="36">
+      <c r="AT20" s="19">
         <v>29</v>
       </c>
-      <c r="AU20" s="36">
+      <c r="AU20" s="19">
         <v>30</v>
       </c>
-      <c r="AV20" s="36">
+      <c r="AV20" s="19">
         <v>31</v>
       </c>
-      <c r="AW20" s="36">
+      <c r="AW20" s="19">
         <v>32</v>
       </c>
-      <c r="AX20" s="36">
+      <c r="AX20" s="19">
         <v>33</v>
       </c>
-      <c r="AY20" s="36">
+      <c r="AY20" s="19">
         <v>34</v>
       </c>
-      <c r="AZ20" s="37">
+      <c r="AZ20" s="20">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:52" ht="14" thickBot="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34">
-        <f>SUM(Q22:Q51)</f>
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="17">
+        <f t="shared" ref="Q21:W21" si="0">SUM(Q22:Q51)</f>
         <v>54</v>
       </c>
-      <c r="R21" s="35">
-        <f>SUM(R22:R51)</f>
+      <c r="R21" s="18">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="S21" s="35">
-        <f>SUM(S22:S51)</f>
+      <c r="S21" s="18">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="T21" s="35">
-        <f>SUM(T22:T51)</f>
+      <c r="T21" s="18">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="U21" s="35">
-        <f>SUM(U22:U51)</f>
+      <c r="U21" s="18">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="V21" s="35">
-        <f>SUM(V22:V51)</f>
+      <c r="V21" s="18">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="W21" s="35">
-        <f>SUM(W22:W51)</f>
+      <c r="W21" s="18">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="X21" s="35">
-        <f t="shared" ref="R21:AZ21" si="0">SUM(X22:X51)</f>
+      <c r="X21" s="18">
+        <f t="shared" ref="X21" si="1">SUM(X22:X51)</f>
         <v>26</v>
       </c>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="35"/>
-      <c r="AH21" s="35"/>
-      <c r="AI21" s="35"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="35"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
-      <c r="AR21" s="35"/>
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="35"/>
-      <c r="AU21" s="35"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="35"/>
-      <c r="AX21" s="35"/>
-      <c r="AY21" s="35"/>
-      <c r="AZ21" s="38"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" ht="14" thickTop="1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="26" t="s">
         <v>1</v>
       </c>
@@ -1824,20 +1824,20 @@
       <c r="AH22" s="8"/>
     </row>
     <row r="23" spans="1:52" ht="14" thickTop="1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="26" t="s">
         <v>1</v>
       </c>
@@ -1871,20 +1871,20 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:52" ht="14" thickTop="1">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="26" t="s">
         <v>16</v>
       </c>
@@ -1918,20 +1918,20 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:52" ht="14" thickTop="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="26" t="s">
         <v>14</v>
       </c>
@@ -1959,23 +1959,26 @@
       <c r="W25" s="13">
         <v>1</v>
       </c>
+      <c r="X25" s="13">
+        <v>0</v>
+      </c>
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:52" ht="14" thickTop="1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="26" t="s">
         <v>14</v>
       </c>
@@ -2003,23 +2006,26 @@
       <c r="W26" s="13">
         <v>1</v>
       </c>
+      <c r="X26" s="13">
+        <v>0</v>
+      </c>
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:52" ht="14" thickTop="1">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="26" t="s">
         <v>14</v>
       </c>
@@ -2047,23 +2053,26 @@
       <c r="W27" s="13">
         <v>1</v>
       </c>
+      <c r="X27" s="13">
+        <v>0</v>
+      </c>
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="26" t="s">
         <v>15</v>
       </c>
@@ -2097,24 +2106,24 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="13">
         <v>2</v>
       </c>
@@ -2148,20 +2157,20 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
@@ -2199,20 +2208,20 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
@@ -2250,20 +2259,20 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
@@ -2301,20 +2310,20 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
@@ -2352,20 +2361,20 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
@@ -2403,20 +2412,20 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
@@ -2454,20 +2463,20 @@
       <c r="AE35" s="8"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
@@ -2505,20 +2514,20 @@
       <c r="AE36" s="8"/>
     </row>
     <row r="37" spans="1:31">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
       <c r="M37" s="26"/>
       <c r="N37" s="26"/>
       <c r="O37" s="26"/>
@@ -2556,18 +2565,18 @@
       <c r="AE37" s="8"/>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
@@ -2589,18 +2598,18 @@
       <c r="AE38" s="8"/>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -2622,18 +2631,18 @@
       <c r="AE39" s="8"/>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
@@ -2655,18 +2664,18 @@
       <c r="AE40" s="8"/>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
@@ -2688,18 +2697,18 @@
       <c r="AE41" s="8"/>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
@@ -2721,18 +2730,18 @@
       <c r="AE42" s="8"/>
     </row>
     <row r="43" spans="1:31">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
@@ -2754,18 +2763,18 @@
       <c r="AE43" s="8"/>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
       <c r="M44" s="26"/>
       <c r="N44" s="26"/>
       <c r="O44" s="26"/>
@@ -2787,18 +2796,18 @@
       <c r="AE44" s="8"/>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
       <c r="O45" s="26"/>
@@ -2820,18 +2829,18 @@
       <c r="AE45" s="8"/>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
       <c r="M46" s="26"/>
       <c r="N46" s="26"/>
       <c r="O46" s="26"/>
@@ -2853,18 +2862,18 @@
       <c r="AE46" s="8"/>
     </row>
     <row r="47" spans="1:31">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
@@ -2886,18 +2895,18 @@
       <c r="AE47" s="8"/>
     </row>
     <row r="48" spans="1:31">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
@@ -2919,18 +2928,18 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
@@ -2952,18 +2961,18 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
@@ -2985,18 +2994,18 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
@@ -3019,6 +3028,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M19:P21"/>
+    <mergeCell ref="A19:L21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:P46"/>
     <mergeCell ref="Q19:AZ19"/>
     <mergeCell ref="A50:L50"/>
     <mergeCell ref="M50:P50"/>
@@ -3035,59 +3093,9 @@
     <mergeCell ref="A49:L49"/>
     <mergeCell ref="M49:P49"/>
     <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M19:P21"/>
-    <mergeCell ref="A19:L21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A22:L22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -3108,20 +3116,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3148,61 +3156,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="28" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="30"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -3251,22 +3259,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -3330,22 +3338,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -4320,61 +4328,7 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -4387,6 +4341,59 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4410,20 +4417,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4450,61 +4457,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="28" t="s">
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="30"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -4553,22 +4560,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -4632,22 +4639,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5622,61 +5629,7 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -5689,6 +5642,59 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="9460" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Job Assignment</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,17 +126,43 @@
     <t>Search fuctions of the database</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit an App to the Database</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH, RV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create App Database</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH, RV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create the Visual of pages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -752,50 +778,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>54.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.0</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="468494680"/>
-        <c:axId val="467886648"/>
+        <c:axId val="226374616"/>
+        <c:axId val="226384968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468494680"/>
+        <c:axId val="226374616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467886648"/>
+        <c:crossAx val="226384968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467886648"/>
+        <c:axId val="226384968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +829,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468494680"/>
+        <c:crossAx val="226374616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1177,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AZ51"/>
+  <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
@@ -1713,36 +1739,36 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="17">
-        <f t="shared" ref="Q21:W21" si="0">SUM(Q22:Q51)</f>
-        <v>54</v>
+        <f t="shared" ref="Q21:W21" si="0">SUM(Q22:Q54)</f>
+        <v>70</v>
       </c>
       <c r="R21" s="18">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="S21" s="18">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="T21" s="18">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="U21" s="18">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V21" s="18">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W21" s="18">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" ref="X21" si="1">SUM(X22:X51)</f>
-        <v>26</v>
+        <f t="shared" ref="X21" si="1">SUM(X22:X54)</f>
+        <v>41</v>
       </c>
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
@@ -1818,6 +1844,21 @@
       <c r="X22" s="13">
         <v>0</v>
       </c>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
@@ -1868,6 +1909,21 @@
       <c r="X23" s="13">
         <v>0</v>
       </c>
+      <c r="Y23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>0</v>
+      </c>
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:52" ht="14" thickTop="1">
@@ -1915,6 +1971,21 @@
       <c r="X24" s="13">
         <v>0</v>
       </c>
+      <c r="Y24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>0</v>
+      </c>
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:52" ht="14" thickTop="1">
@@ -1962,6 +2033,21 @@
       <c r="X25" s="13">
         <v>0</v>
       </c>
+      <c r="Y25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>0</v>
+      </c>
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:52" ht="14" thickTop="1">
@@ -2009,6 +2095,21 @@
       <c r="X26" s="13">
         <v>0</v>
       </c>
+      <c r="Y26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>0</v>
+      </c>
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:52" ht="14" thickTop="1">
@@ -2056,6 +2157,21 @@
       <c r="X27" s="13">
         <v>0</v>
       </c>
+      <c r="Y27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>0</v>
+      </c>
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:52">
@@ -2101,7 +2217,22 @@
         <v>1</v>
       </c>
       <c r="X28" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>0</v>
       </c>
       <c r="AE28" s="8"/>
     </row>
@@ -2120,7 +2251,9 @@
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
@@ -2148,11 +2281,21 @@
       <c r="X29" s="13">
         <v>2</v>
       </c>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
+      <c r="Y29" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>2</v>
+      </c>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
     </row>
@@ -2171,7 +2314,9 @@
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
-      <c r="M30" s="26"/>
+      <c r="M30" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
       <c r="P30" s="26"/>
@@ -2199,11 +2344,21 @@
       <c r="X30" s="8">
         <v>3</v>
       </c>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
+      <c r="Y30" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>3</v>
+      </c>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
     </row>
@@ -2222,7 +2377,9 @@
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
-      <c r="M31" s="26"/>
+      <c r="M31" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
@@ -2250,11 +2407,21 @@
       <c r="X31" s="13">
         <v>3</v>
       </c>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
+      <c r="Y31" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>3</v>
+      </c>
       <c r="AD31" s="8"/>
       <c r="AE31" s="8"/>
     </row>
@@ -2273,7 +2440,9 @@
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
-      <c r="M32" s="26"/>
+      <c r="M32" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
       <c r="P32" s="26"/>
@@ -2301,11 +2470,21 @@
       <c r="X32" s="13">
         <v>7</v>
       </c>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
+      <c r="Y32" s="13">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>7</v>
+      </c>
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
     </row>
@@ -2324,7 +2503,9 @@
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
-      <c r="M33" s="26"/>
+      <c r="M33" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
       <c r="P33" s="26"/>
@@ -2352,17 +2533,27 @@
       <c r="X33" s="13">
         <v>2</v>
       </c>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
+      <c r="Y33" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>2</v>
+      </c>
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -2375,11 +2566,13 @@
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
-      <c r="M34" s="26"/>
+      <c r="M34" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
       <c r="P34" s="26"/>
-      <c r="Q34" s="8">
+      <c r="Q34" s="13">
         <v>1</v>
       </c>
       <c r="R34" s="13">
@@ -2403,263 +2596,393 @@
       <c r="X34" s="13">
         <v>1</v>
       </c>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
+      <c r="Y34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>1</v>
+      </c>
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="26"/>
+      <c r="A35" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
       <c r="P35" s="26"/>
-      <c r="Q35" s="8">
-        <v>3</v>
+      <c r="Q35" s="13">
+        <v>5</v>
       </c>
       <c r="R35" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S35" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U35" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X35" s="13">
-        <v>3</v>
-      </c>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>5</v>
+      </c>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="26"/>
+      <c r="A36" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="N36" s="26"/>
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X36" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>1</v>
+      </c>
       <c r="AD36" s="8"/>
       <c r="AE36" s="8"/>
     </row>
     <row r="37" spans="1:31">
-      <c r="A37" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="26"/>
+      <c r="A37" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="N37" s="26"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
-      <c r="Q37" s="8">
-        <v>2</v>
+      <c r="Q37" s="13">
+        <v>10</v>
       </c>
       <c r="R37" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S37" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T37" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U37" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V37" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X37" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>10</v>
+      </c>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="A38" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
+      <c r="Q38" s="8">
+        <v>3</v>
+      </c>
+      <c r="R38" s="13">
+        <v>3</v>
+      </c>
+      <c r="S38" s="13">
+        <v>3</v>
+      </c>
+      <c r="T38" s="13">
+        <v>3</v>
+      </c>
+      <c r="U38" s="13">
+        <v>3</v>
+      </c>
+      <c r="V38" s="13">
+        <v>3</v>
+      </c>
+      <c r="W38" s="13">
+        <v>3</v>
+      </c>
+      <c r="X38" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>3</v>
+      </c>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="A39" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
+      <c r="Q39" s="8">
+        <v>2</v>
+      </c>
+      <c r="R39" s="13">
+        <v>2</v>
+      </c>
+      <c r="S39" s="13">
+        <v>2</v>
+      </c>
+      <c r="T39" s="13">
+        <v>2</v>
+      </c>
+      <c r="U39" s="13">
+        <v>2</v>
+      </c>
+      <c r="V39" s="13">
+        <v>2</v>
+      </c>
+      <c r="W39" s="13">
+        <v>2</v>
+      </c>
+      <c r="X39" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>2</v>
+      </c>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="A40" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
+      <c r="Q40" s="8">
+        <v>2</v>
+      </c>
+      <c r="R40" s="13">
+        <v>2</v>
+      </c>
+      <c r="S40" s="13">
+        <v>2</v>
+      </c>
+      <c r="T40" s="13">
+        <v>2</v>
+      </c>
+      <c r="U40" s="13">
+        <v>2</v>
+      </c>
+      <c r="V40" s="13">
+        <v>2</v>
+      </c>
+      <c r="W40" s="13">
+        <v>2</v>
+      </c>
+      <c r="X40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>2</v>
+      </c>
       <c r="AD40" s="8"/>
       <c r="AE40" s="8"/>
     </row>
@@ -3026,8 +3349,109 @@
       <c r="AD51" s="8"/>
       <c r="AE51" s="8"/>
     </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="71">
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:P37"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="M19:P21"/>
@@ -3052,14 +3476,12 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="A35:L35"/>
     <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:P37"/>
     <mergeCell ref="A38:L38"/>
     <mergeCell ref="M38:P38"/>
     <mergeCell ref="A39:L39"/>
@@ -3072,27 +3494,33 @@
     <mergeCell ref="M42:P42"/>
     <mergeCell ref="A43:L43"/>
     <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A44:L44"/>
     <mergeCell ref="M44:P44"/>
     <mergeCell ref="A45:L45"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="A46:L46"/>
     <mergeCell ref="M46:P46"/>
-    <mergeCell ref="Q19:AZ19"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A47:L47"/>
     <mergeCell ref="M47:P47"/>
     <mergeCell ref="A48:L48"/>
     <mergeCell ref="M48:P48"/>
     <mergeCell ref="A49:L49"/>
     <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="Q19:AZ19"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A47:L47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3109,7 +3537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView showRuler="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
@@ -4410,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView showRuler="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,104 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Morgan Jacobson</author>
+  </authors>
+  <commentList>
+    <comment ref="AE20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>Morgan Jacobson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+04/16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>Morgan Jacobson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+04/23</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>Morgan Jacobson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+04/31</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>Morgan Jacobson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+04/07</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -163,7 +261,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -175,6 +279,17 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -571,33 +686,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -623,14 +716,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,27 +916,60 @@
                 <c:pt idx="7">
                   <c:v>41.0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="226374616"/>
-        <c:axId val="226384968"/>
+        <c:axId val="312970856"/>
+        <c:axId val="312974008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226374616"/>
+        <c:axId val="312970856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226384968"/>
+        <c:crossAx val="312974008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226384968"/>
+        <c:axId val="312974008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +977,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226374616"/>
+        <c:crossAx val="312970856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1206,22 +1354,22 @@
   <dimension ref="A1:AZ54"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AD37" sqref="AD37"/>
+      <selection activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1536,82 +1684,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
-      <c r="AZ19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="37"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="38"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1722,22 +1870,22 @@
       </c>
     </row>
     <row r="21" spans="1:52" ht="14" thickBot="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
       <c r="Q21" s="17">
         <f t="shared" ref="Q21:W21" si="0">SUM(Q22:Q54)</f>
         <v>70</v>
@@ -1767,20 +1915,53 @@
         <v>47</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" ref="X21" si="1">SUM(X22:X54)</f>
+        <f t="shared" ref="X21:AZ21" si="1">SUM(X22:X54)</f>
         <v>41</v>
       </c>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
+      <c r="Y21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="Z21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AA21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AB21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AC21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AD21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AE21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AF21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AG21" s="18">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AH21" s="18">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="AI21" s="18">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="18"/>
       <c r="AL21" s="18"/>
@@ -1800,26 +1981,26 @@
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52" ht="14" thickTop="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="26" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="8">
         <v>3</v>
       </c>
@@ -1859,32 +2040,46 @@
       <c r="AC22" s="13">
         <v>0</v>
       </c>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
+      <c r="AD22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:52" ht="14" thickTop="1">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="26" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
       <c r="Q23" s="8">
         <v>10</v>
       </c>
@@ -1924,29 +2119,46 @@
       <c r="AC23" s="13">
         <v>0</v>
       </c>
-      <c r="AE23" s="8"/>
+      <c r="AD23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:52" ht="14" thickTop="1">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="26" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="8">
         <v>7</v>
       </c>
@@ -1986,29 +2198,46 @@
       <c r="AC24" s="13">
         <v>0</v>
       </c>
-      <c r="AE24" s="8"/>
+      <c r="AD24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:52" ht="14" thickTop="1">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="26" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="13">
         <v>3</v>
       </c>
@@ -2048,29 +2277,46 @@
       <c r="AC25" s="13">
         <v>0</v>
       </c>
-      <c r="AE25" s="8"/>
+      <c r="AD25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:52" ht="14" thickTop="1">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="26" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="13">
         <v>2</v>
       </c>
@@ -2110,29 +2356,46 @@
       <c r="AC26" s="13">
         <v>0</v>
       </c>
-      <c r="AE26" s="8"/>
+      <c r="AD26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:52" ht="14" thickTop="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="26" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="13">
         <v>3</v>
       </c>
@@ -2172,29 +2435,46 @@
       <c r="AC27" s="13">
         <v>0</v>
       </c>
-      <c r="AE27" s="8"/>
+      <c r="AD27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="26" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="13">
         <v>1</v>
       </c>
@@ -2234,29 +2514,46 @@
       <c r="AC28" s="13">
         <v>0</v>
       </c>
-      <c r="AE28" s="8"/>
+      <c r="AD28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
       <c r="Q29" s="13">
         <v>2</v>
       </c>
@@ -2296,30 +2593,46 @@
       <c r="AC29" s="13">
         <v>2</v>
       </c>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
+      <c r="AD29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="26" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="13">
         <v>3</v>
       </c>
@@ -2359,30 +2672,46 @@
       <c r="AC30" s="13">
         <v>3</v>
       </c>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
+      <c r="AD30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="26" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="13">
         <v>3</v>
       </c>
@@ -2422,30 +2751,46 @@
       <c r="AC31" s="13">
         <v>3</v>
       </c>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
+      <c r="AD31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="26" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="8">
         <v>7</v>
       </c>
@@ -2485,30 +2830,46 @@
       <c r="AC32" s="13">
         <v>7</v>
       </c>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="31" t="s">
+      <c r="AD32" s="13">
+        <v>7</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>6</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="26" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="8">
         <v>2</v>
       </c>
@@ -2548,30 +2909,46 @@
       <c r="AC33" s="13">
         <v>2</v>
       </c>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-    </row>
-    <row r="34" spans="1:31">
-      <c r="A34" s="31" t="s">
+      <c r="AD33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI33" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="26" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="13">
         <v>1</v>
       </c>
@@ -2611,30 +2988,46 @@
       <c r="AC34" s="13">
         <v>1</v>
       </c>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-    </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="31" t="s">
+      <c r="AD34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="26" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="13">
         <v>5</v>
       </c>
@@ -2674,30 +3067,46 @@
       <c r="AC35" s="13">
         <v>5</v>
       </c>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="31" t="s">
+      <c r="AD35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="26" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
       <c r="Q36" s="8">
         <v>1</v>
       </c>
@@ -2737,30 +3146,46 @@
       <c r="AC36" s="13">
         <v>1</v>
       </c>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="31" t="s">
+      <c r="AD36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="26" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
       <c r="Q37" s="13">
         <v>10</v>
       </c>
@@ -2800,28 +3225,44 @@
       <c r="AC37" s="13">
         <v>10</v>
       </c>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="30" t="s">
+      <c r="AD37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>10</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>9</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
       <c r="Q38" s="8">
         <v>3</v>
       </c>
@@ -2861,28 +3302,44 @@
       <c r="AC38" s="13">
         <v>3</v>
       </c>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="30" t="s">
+      <c r="AD38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI38" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
       <c r="Q39" s="8">
         <v>2</v>
       </c>
@@ -2922,28 +3379,44 @@
       <c r="AC39" s="13">
         <v>2</v>
       </c>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="30" t="s">
+      <c r="AD39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG39">
+        <v>2</v>
+      </c>
+      <c r="AH39">
+        <v>2</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
       <c r="Q40" s="8">
         <v>2</v>
       </c>
@@ -2983,26 +3456,42 @@
       <c r="AC40" s="13">
         <v>2</v>
       </c>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
+      <c r="AD40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -3019,23 +3508,23 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
     </row>
-    <row r="42" spans="1:31">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
+    <row r="42" spans="1:35">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -3052,23 +3541,23 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:31">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
+    <row r="43" spans="1:35">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -3085,23 +3574,23 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:31">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
+    <row r="44" spans="1:35">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -3118,23 +3607,23 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:31">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
+    <row r="45" spans="1:35">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -3151,23 +3640,23 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:31">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
+    <row r="46" spans="1:35">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -3184,23 +3673,23 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:31">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
+    <row r="47" spans="1:35">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -3217,23 +3706,23 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:31">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
+    <row r="48" spans="1:35">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -3251,22 +3740,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -3284,22 +3773,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -3317,22 +3806,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -3350,22 +3839,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -3383,22 +3872,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -3416,22 +3905,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -3450,6 +3939,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="Q19:AZ19"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="A1:F1"/>
@@ -3466,65 +4010,12 @@
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="Q19:AZ19"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="A47:L47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3544,20 +4035,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="A1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3584,61 +4075,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -3687,22 +4178,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -3766,22 +4257,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -3799,22 +4290,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -3832,22 +4323,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -3865,22 +4356,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -3898,22 +4389,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -3931,22 +4422,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -3964,22 +4455,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -3997,22 +4488,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -4030,22 +4521,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -4063,22 +4554,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -4096,22 +4587,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -4129,22 +4620,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -4162,22 +4653,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -4195,22 +4686,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -4228,22 +4719,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -4261,22 +4752,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -4294,22 +4785,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -4327,22 +4818,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -4360,22 +4851,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -4393,22 +4884,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -4426,22 +4917,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -4459,22 +4950,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -4492,22 +4983,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -4525,22 +5016,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -4558,22 +5049,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -4591,22 +5082,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -4624,22 +5115,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -4657,22 +5148,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -4690,22 +5181,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -4723,22 +5214,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -4757,6 +5248,59 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -4769,59 +5313,6 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4845,20 +5336,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="A1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4885,61 +5376,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -4988,22 +5479,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -5067,22 +5558,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5100,22 +5591,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5133,22 +5624,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5166,22 +5657,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5199,22 +5690,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5232,22 +5723,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5265,22 +5756,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5298,22 +5789,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5331,22 +5822,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5364,22 +5855,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5397,22 +5888,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5430,22 +5921,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -5463,22 +5954,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -5496,22 +5987,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -5529,22 +6020,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -5562,22 +6053,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -5595,22 +6086,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -5628,22 +6119,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -5661,22 +6152,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -5694,22 +6185,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -5727,22 +6218,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -5760,22 +6251,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -5793,22 +6284,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -5826,22 +6317,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -5859,22 +6350,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -5892,22 +6383,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -5925,22 +6416,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -5958,22 +6449,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5991,22 +6482,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6024,22 +6515,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6058,6 +6549,59 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -6070,59 +6614,6 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Create the App Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Set up Admin approval for all app submissions</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -253,7 +249,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Create the Visual of pages</t>
+    <t>Create the Skeleton of the App Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create the HTML Visual of  all Pages</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -686,11 +686,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -716,36 +738,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,23 +953,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="312970856"/>
-        <c:axId val="312974008"/>
+        <c:axId val="341794968"/>
+        <c:axId val="341798072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312970856"/>
+        <c:axId val="341794968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312974008"/>
+        <c:crossAx val="341798072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312974008"/>
+        <c:axId val="341798072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +977,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312970856"/>
+        <c:crossAx val="341794968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1353,23 +1353,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AN33" sqref="AN33"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1684,82 +1684,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="24"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1870,22 +1870,22 @@
       </c>
     </row>
     <row r="21" spans="1:52" ht="14" thickBot="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
       <c r="Q21" s="17">
         <f t="shared" ref="Q21:W21" si="0">SUM(Q22:Q54)</f>
         <v>70</v>
@@ -1915,7 +1915,7 @@
         <v>47</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" ref="X21:AZ21" si="1">SUM(X22:X54)</f>
+        <f t="shared" ref="X21:AI21" si="1">SUM(X22:X54)</f>
         <v>41</v>
       </c>
       <c r="Y21" s="18">
@@ -1980,27 +1980,27 @@
       <c r="AY21" s="18"/>
       <c r="AZ21" s="21"/>
     </row>
-    <row r="22" spans="1:52" ht="14" thickTop="1">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:52">
+      <c r="A22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="23" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="8">
         <v>3</v>
       </c>
@@ -2059,27 +2059,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="14" thickTop="1">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:52">
+      <c r="A23" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="23" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="Q23" s="8">
         <v>10</v>
       </c>
@@ -2138,27 +2138,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="14" thickTop="1">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:52">
+      <c r="A24" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="23" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="8">
         <v>7</v>
       </c>
@@ -2217,27 +2217,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="14" thickTop="1">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:52">
+      <c r="A25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="23" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="13">
         <v>3</v>
       </c>
@@ -2296,27 +2296,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="14" thickTop="1">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:52">
+      <c r="A26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="23" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="13">
         <v>2</v>
       </c>
@@ -2375,27 +2375,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="14" thickTop="1">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:52">
+      <c r="A27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="23" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
       <c r="Q27" s="13">
         <v>3</v>
       </c>
@@ -2455,26 +2455,26 @@
       </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="23" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="13">
         <v>1</v>
       </c>
@@ -2534,26 +2534,26 @@
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="13">
         <v>2</v>
       </c>
@@ -2613,26 +2613,26 @@
       </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="13">
         <v>3</v>
       </c>
@@ -2692,26 +2692,26 @@
       </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
       <c r="Q31" s="13">
         <v>3</v>
       </c>
@@ -2771,26 +2771,26 @@
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="A32" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="8">
         <v>7</v>
       </c>
@@ -2850,26 +2850,26 @@
       </c>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="A33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
       <c r="Q33" s="8">
         <v>2</v>
       </c>
@@ -2929,26 +2929,26 @@
       </c>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
       <c r="Q34" s="13">
         <v>1</v>
       </c>
@@ -3008,26 +3008,26 @@
       </c>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
       <c r="Q35" s="13">
         <v>5</v>
       </c>
@@ -3087,26 +3087,26 @@
       </c>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
+      <c r="A36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
       <c r="Q36" s="8">
         <v>1</v>
       </c>
@@ -3166,26 +3166,26 @@
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
       <c r="Q37" s="13">
         <v>10</v>
       </c>
@@ -3245,178 +3245,178 @@
       </c>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="8">
+        <v>3</v>
+      </c>
+      <c r="R38" s="13">
+        <v>3</v>
+      </c>
+      <c r="S38" s="13">
+        <v>3</v>
+      </c>
+      <c r="T38" s="13">
+        <v>3</v>
+      </c>
+      <c r="U38" s="13">
+        <v>3</v>
+      </c>
+      <c r="V38" s="13">
+        <v>3</v>
+      </c>
+      <c r="W38" s="13">
+        <v>3</v>
+      </c>
+      <c r="X38" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI38" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="8">
-        <v>3</v>
-      </c>
-      <c r="R38" s="13">
-        <v>3</v>
-      </c>
-      <c r="S38" s="13">
-        <v>3</v>
-      </c>
-      <c r="T38" s="13">
-        <v>3</v>
-      </c>
-      <c r="U38" s="13">
-        <v>3</v>
-      </c>
-      <c r="V38" s="13">
-        <v>3</v>
-      </c>
-      <c r="W38" s="13">
-        <v>3</v>
-      </c>
-      <c r="X38" s="13">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="33" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="8">
+        <v>2</v>
+      </c>
+      <c r="R39" s="13">
+        <v>2</v>
+      </c>
+      <c r="S39" s="13">
+        <v>2</v>
+      </c>
+      <c r="T39" s="13">
+        <v>2</v>
+      </c>
+      <c r="U39" s="13">
+        <v>2</v>
+      </c>
+      <c r="V39" s="13">
+        <v>2</v>
+      </c>
+      <c r="W39" s="13">
+        <v>2</v>
+      </c>
+      <c r="X39" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG39">
+        <v>2</v>
+      </c>
+      <c r="AH39">
+        <v>2</v>
+      </c>
+      <c r="AI39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
+      <c r="A40" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="8">
-        <v>2</v>
-      </c>
-      <c r="R39" s="13">
-        <v>2</v>
-      </c>
-      <c r="S39" s="13">
-        <v>2</v>
-      </c>
-      <c r="T39" s="13">
-        <v>2</v>
-      </c>
-      <c r="U39" s="13">
-        <v>2</v>
-      </c>
-      <c r="V39" s="13">
-        <v>2</v>
-      </c>
-      <c r="W39" s="13">
-        <v>2</v>
-      </c>
-      <c r="X39" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG39">
-        <v>2</v>
-      </c>
-      <c r="AH39">
-        <v>2</v>
-      </c>
-      <c r="AI39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
       <c r="Q40" s="8">
         <v>2</v>
       </c>
@@ -3476,22 +3476,22 @@
       </c>
     </row>
     <row r="41" spans="1:35">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -3509,22 +3509,22 @@
       <c r="AE41" s="8"/>
     </row>
     <row r="42" spans="1:35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -3542,22 +3542,22 @@
       <c r="AE42" s="8"/>
     </row>
     <row r="43" spans="1:35">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -3575,22 +3575,22 @@
       <c r="AE43" s="8"/>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -3608,22 +3608,22 @@
       <c r="AE44" s="8"/>
     </row>
     <row r="45" spans="1:35">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -3641,22 +3641,22 @@
       <c r="AE45" s="8"/>
     </row>
     <row r="46" spans="1:35">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -3674,22 +3674,22 @@
       <c r="AE46" s="8"/>
     </row>
     <row r="47" spans="1:35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -3707,22 +3707,22 @@
       <c r="AE47" s="8"/>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -3740,22 +3740,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -3773,22 +3773,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -3806,22 +3806,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -3839,22 +3839,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -3872,22 +3872,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -3905,22 +3905,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -3938,7 +3938,63 @@
       <c r="AE54" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="71">
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M19:P21"/>
+    <mergeCell ref="A19:L21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:P49"/>
     <mergeCell ref="Q19:AZ19"/>
     <mergeCell ref="A53:L53"/>
     <mergeCell ref="M53:P53"/>
@@ -3955,65 +4011,9 @@
     <mergeCell ref="A52:L52"/>
     <mergeCell ref="M52:P52"/>
     <mergeCell ref="A47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M19:P21"/>
-    <mergeCell ref="A19:L21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -4035,20 +4035,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4075,61 +4075,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -4178,22 +4178,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -4257,22 +4257,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -4290,22 +4290,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -4323,22 +4323,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -4356,22 +4356,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -4389,22 +4389,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -4422,22 +4422,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -4455,22 +4455,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -4488,22 +4488,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -4521,22 +4521,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -4554,22 +4554,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -4587,22 +4587,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -4620,22 +4620,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -4653,22 +4653,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -4686,22 +4686,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -4719,22 +4719,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -4752,22 +4752,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -4785,22 +4785,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -4818,22 +4818,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -4851,22 +4851,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -4884,22 +4884,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -4917,22 +4917,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -4950,22 +4950,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -4983,22 +4983,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -5016,22 +5016,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -5049,22 +5049,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -5082,22 +5082,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -5115,22 +5115,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -5148,22 +5148,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5181,22 +5181,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -5214,22 +5214,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -5247,60 +5247,8 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -5313,6 +5261,59 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5336,20 +5337,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5376,61 +5377,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -5479,22 +5480,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -5558,22 +5559,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5591,22 +5592,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5624,22 +5625,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5657,22 +5658,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5690,22 +5691,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5723,22 +5724,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5756,22 +5757,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5789,22 +5790,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5822,22 +5823,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5855,22 +5856,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5888,22 +5889,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5921,22 +5922,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -5954,22 +5955,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -5987,22 +5988,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -6020,22 +6021,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -6053,22 +6054,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6086,22 +6087,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -6119,22 +6120,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6152,22 +6153,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6185,22 +6186,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6218,22 +6219,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6251,22 +6252,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6284,22 +6285,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6317,22 +6318,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6350,22 +6351,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -6383,22 +6384,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -6416,22 +6417,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6449,22 +6450,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -6482,22 +6483,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6515,22 +6516,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6548,60 +6549,8 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -6614,6 +6563,59 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20900" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -686,33 +686,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -738,14 +716,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,27 +949,30 @@
                 <c:pt idx="18">
                   <c:v>37.0</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="341794968"/>
-        <c:axId val="341798072"/>
+        <c:axId val="312750216"/>
+        <c:axId val="312752920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="341794968"/>
+        <c:axId val="312750216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341798072"/>
+        <c:crossAx val="312752920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="341798072"/>
+        <c:axId val="312752920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +980,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341794968"/>
+        <c:crossAx val="312750216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1353,23 +1356,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:L37"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="AO30" sqref="AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1684,82 +1687,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="23"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
-      <c r="AZ19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="37"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="38"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1870,22 +1873,22 @@
       </c>
     </row>
     <row r="21" spans="1:52" ht="14" thickBot="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
       <c r="Q21" s="17">
         <f t="shared" ref="Q21:W21" si="0">SUM(Q22:Q54)</f>
         <v>70</v>
@@ -1915,7 +1918,7 @@
         <v>47</v>
       </c>
       <c r="X21" s="18">
-        <f t="shared" ref="X21:AI21" si="1">SUM(X22:X54)</f>
+        <f t="shared" ref="X21:AJ21" si="1">SUM(X22:X54)</f>
         <v>41</v>
       </c>
       <c r="Y21" s="18">
@@ -1962,7 +1965,10 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AJ21" s="18"/>
+      <c r="AJ21" s="18">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="AK21" s="18"/>
       <c r="AL21" s="18"/>
       <c r="AM21" s="18"/>
@@ -1981,26 +1987,26 @@
       <c r="AZ21" s="21"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="26" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="8">
         <v>3</v>
       </c>
@@ -2058,28 +2064,31 @@
       <c r="AI22">
         <v>0</v>
       </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="26" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
       <c r="Q23" s="8">
         <v>10</v>
       </c>
@@ -2137,28 +2146,32 @@
       <c r="AI23" s="13">
         <v>0</v>
       </c>
+      <c r="AJ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="13"/>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="26" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="8">
         <v>7</v>
       </c>
@@ -2216,28 +2229,32 @@
       <c r="AI24" s="13">
         <v>0</v>
       </c>
+      <c r="AJ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="13"/>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="26" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="13">
         <v>3</v>
       </c>
@@ -2295,28 +2312,32 @@
       <c r="AI25" s="13">
         <v>0</v>
       </c>
+      <c r="AJ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="13"/>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="26" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="13">
         <v>2</v>
       </c>
@@ -2374,28 +2395,32 @@
       <c r="AI26" s="13">
         <v>0</v>
       </c>
+      <c r="AJ26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="13"/>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="26" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="13">
         <v>3</v>
       </c>
@@ -2453,28 +2478,32 @@
       <c r="AI27" s="13">
         <v>0</v>
       </c>
+      <c r="AJ27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="13"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="26" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="13">
         <v>1</v>
       </c>
@@ -2532,28 +2561,32 @@
       <c r="AI28" s="13">
         <v>0</v>
       </c>
+      <c r="AJ28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="13"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
       <c r="Q29" s="13">
         <v>2</v>
       </c>
@@ -2611,28 +2644,32 @@
       <c r="AI29" s="13">
         <v>1</v>
       </c>
+      <c r="AJ29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="13"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="26" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="13">
         <v>3</v>
       </c>
@@ -2690,28 +2727,32 @@
       <c r="AI30" s="13">
         <v>3</v>
       </c>
+      <c r="AJ30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="13"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="26" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="13">
         <v>3</v>
       </c>
@@ -2769,28 +2810,32 @@
       <c r="AI31" s="13">
         <v>3</v>
       </c>
+      <c r="AJ31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="13"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="26" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="8">
         <v>7</v>
       </c>
@@ -2848,28 +2893,32 @@
       <c r="AI32" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="31" t="s">
+      <c r="AJ32" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="13"/>
+    </row>
+    <row r="33" spans="1:36">
+      <c r="A33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="26" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="8">
         <v>2</v>
       </c>
@@ -2927,28 +2976,31 @@
       <c r="AI33" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="31" t="s">
+      <c r="AJ33" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36">
+      <c r="A34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="26" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="13">
         <v>1</v>
       </c>
@@ -3006,28 +3058,31 @@
       <c r="AI34" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="31" t="s">
+      <c r="AJ34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
+      <c r="A35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="26" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="13">
         <v>5</v>
       </c>
@@ -3085,28 +3140,31 @@
       <c r="AI35" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="31" t="s">
+      <c r="AJ35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36">
+      <c r="A36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="26" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
       <c r="Q36" s="8">
         <v>1</v>
       </c>
@@ -3164,28 +3222,31 @@
       <c r="AI36" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="31" t="s">
+      <c r="AJ36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
+      <c r="A37" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="26" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
       <c r="Q37" s="13">
         <v>10</v>
       </c>
@@ -3243,26 +3304,29 @@
       <c r="AI37" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="30" t="s">
+      <c r="AJ37" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="A38" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
       <c r="Q38" s="8">
         <v>3</v>
       </c>
@@ -3320,26 +3384,29 @@
       <c r="AI38" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="30" t="s">
+      <c r="AJ38" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
+      <c r="A39" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
       <c r="Q39" s="8">
         <v>2</v>
       </c>
@@ -3397,26 +3464,29 @@
       <c r="AI39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="30" t="s">
+      <c r="AJ39" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
+      <c r="A40" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
       <c r="Q40" s="8">
         <v>2</v>
       </c>
@@ -3474,24 +3544,27 @@
       <c r="AI40" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
+      <c r="AJ40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
@@ -3508,23 +3581,23 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
     </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
+    <row r="42" spans="1:36">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -3541,23 +3614,23 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
+    <row r="43" spans="1:36">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -3574,23 +3647,23 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
+    <row r="44" spans="1:36">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -3607,23 +3680,23 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
+    <row r="45" spans="1:36">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -3640,23 +3713,23 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
+    <row r="46" spans="1:36">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -3673,23 +3746,23 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
+    <row r="47" spans="1:36">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -3706,23 +3779,23 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
+    <row r="48" spans="1:36">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -3740,22 +3813,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -3773,22 +3846,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -3806,22 +3879,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -3839,22 +3912,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -3872,22 +3945,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -3905,22 +3978,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -3938,8 +4011,62 @@
       <c r="AE54" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="71">
+    <mergeCell ref="Q19:AZ19"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="M37:P37"/>
     <mergeCell ref="A1:F1"/>
@@ -3956,64 +4083,10 @@
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="Q19:AZ19"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="A47:L47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -4035,20 +4108,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="A1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4075,61 +4148,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -4178,22 +4251,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -4257,22 +4330,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -4290,22 +4363,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -4323,22 +4396,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -4356,22 +4429,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -4389,22 +4462,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -4422,22 +4495,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -4455,22 +4528,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -4488,22 +4561,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -4521,22 +4594,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -4554,22 +4627,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -4587,22 +4660,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -4620,22 +4693,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -4653,22 +4726,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -4686,22 +4759,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -4719,22 +4792,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -4752,22 +4825,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -4785,22 +4858,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -4818,22 +4891,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -4851,22 +4924,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -4884,22 +4957,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -4917,22 +4990,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -4950,22 +5023,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -4983,22 +5056,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -5016,22 +5089,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -5049,22 +5122,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -5082,22 +5155,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -5115,22 +5188,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -5148,22 +5221,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5181,22 +5254,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -5214,22 +5287,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -5247,8 +5320,60 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -5261,59 +5386,6 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5337,20 +5409,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="A1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5377,61 +5449,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="38"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -5480,22 +5552,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -5559,22 +5631,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5592,22 +5664,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5625,22 +5697,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5658,22 +5730,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5691,22 +5763,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5724,22 +5796,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5757,22 +5829,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5790,22 +5862,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5823,22 +5895,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5856,22 +5928,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5889,22 +5961,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5922,22 +5994,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -5955,22 +6027,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -5988,22 +6060,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -6021,22 +6093,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -6054,22 +6126,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6087,22 +6159,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -6120,22 +6192,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6153,22 +6225,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6186,22 +6258,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6219,22 +6291,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6252,22 +6324,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6285,22 +6357,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6318,22 +6390,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6351,22 +6423,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -6384,22 +6456,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -6417,22 +6489,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6450,22 +6522,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -6483,22 +6555,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6516,22 +6588,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6549,8 +6621,60 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -6563,59 +6687,6 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -119,142 +119,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Job Assignment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Days Left/Effort Left</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Iteration Deadline:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>User Story</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>April 23rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>May 7th</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create a Web Server Skeleton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create a Main Page Skeleton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create an App Submission Form Skeleton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create a New User Account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create a Moderator Account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create and Admin Type Account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create the Logo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Login to Your Account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create a Rating System for Apps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Comment on an App</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Set up Admin approval for all app submissions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Set up moderator ability to delete comments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Video and picture submission for app</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Compare the same app across platforms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Search fuctions of the database</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Submit an App to the Database</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CH, RV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create App Database</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CH, RV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create the Skeleton of the App Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Create the HTML Visual of  all Pages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity: </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -267,8 +271,13 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -319,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -649,16 +658,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -675,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -686,51 +728,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -738,14 +749,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,6 +817,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Iteration 1'!$Q$20:$AZ$20</c:f>
@@ -888,7 +939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Iteration 1'!$Q$21:$AZ$21</c:f>
+              <c:f>'Iteration 1'!$Q$22:$AZ$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -950,29 +1001,32 @@
                   <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.0</c:v>
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="312750216"/>
-        <c:axId val="312752920"/>
+        <c:axId val="316284328"/>
+        <c:axId val="316279400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312750216"/>
+        <c:axId val="316284328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312752920"/>
+        <c:crossAx val="316279400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312752920"/>
+        <c:axId val="316279400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +1034,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312750216"/>
+        <c:crossAx val="316284328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1354,25 +1408,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AZ54"/>
+  <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AO30" sqref="AO30"/>
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
+  <cols>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+    <row r="1" spans="1:29">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1380,7 +1437,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:29">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1398,7 +1455,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16" ht="13" customHeight="1">
+    <row r="3" spans="1:29" ht="13" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1415,8 +1472,19 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" ht="13" customHeight="1">
+      <c r="W3" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+    </row>
+    <row r="4" spans="1:29" ht="13" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1434,7 +1502,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="13" customHeight="1">
+    <row r="5" spans="1:29" ht="13" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1452,7 +1520,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="13" customHeight="1">
+    <row r="6" spans="1:29" ht="13" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1470,7 +1538,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:16" ht="13" customHeight="1">
+    <row r="7" spans="1:29" ht="13" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1488,7 +1556,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" ht="13" customHeight="1">
+    <row r="8" spans="1:29" ht="13" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1506,7 +1574,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="13" customHeight="1">
+    <row r="9" spans="1:29" ht="13" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1524,7 +1592,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16" ht="13" customHeight="1">
+    <row r="10" spans="1:29" ht="13" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1542,7 +1610,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" ht="13" customHeight="1">
+    <row r="11" spans="1:29" ht="13" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1560,7 +1628,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" ht="13" customHeight="1">
+    <row r="12" spans="1:29" ht="13" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1578,7 +1646,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="13" customHeight="1">
+    <row r="13" spans="1:29" ht="13" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1596,7 +1664,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" ht="13" customHeight="1">
+    <row r="14" spans="1:29" ht="13" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1614,7 +1682,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" ht="13" customHeight="1">
+    <row r="15" spans="1:29" ht="13" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1632,7 +1700,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" ht="13" customHeight="1">
+    <row r="16" spans="1:29" ht="13" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1687,82 +1755,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="24"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1872,320 +1940,360 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="14" thickBot="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="17">
-        <f t="shared" ref="Q21:W21" si="0">SUM(Q22:Q54)</f>
+    <row r="21" spans="1:52">
+      <c r="A21" s="38"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="43">
+        <f>Q22/$AA$3</f>
+        <v>100</v>
+      </c>
+      <c r="R21" s="43">
+        <f t="shared" ref="R21:AK21" si="0">R22/$AA$3</f>
+        <v>95.714285714285722</v>
+      </c>
+      <c r="S21" s="43">
+        <f t="shared" si="0"/>
+        <v>95.714285714285722</v>
+      </c>
+      <c r="T21" s="43">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="U21" s="43">
+        <f t="shared" si="0"/>
+        <v>95.714285714285722</v>
+      </c>
+      <c r="V21" s="43">
+        <f t="shared" si="0"/>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="W21" s="43">
+        <f t="shared" si="0"/>
+        <v>67.142857142857153</v>
+      </c>
+      <c r="X21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="Y21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="Z21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AA21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AB21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AC21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AD21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AE21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AF21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AG21" s="43">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+      <c r="AH21" s="43">
+        <f t="shared" si="0"/>
+        <v>52.857142857142861</v>
+      </c>
+      <c r="AI21" s="43">
+        <f t="shared" si="0"/>
+        <v>52.857142857142861</v>
+      </c>
+      <c r="AJ21" s="43">
+        <f t="shared" si="0"/>
+        <v>41.428571428571431</v>
+      </c>
+      <c r="AK21" s="43">
+        <f t="shared" si="0"/>
+        <v>41.428571428571431</v>
+      </c>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44"/>
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="45"/>
+    </row>
+    <row r="22" spans="1:52" ht="14" thickBot="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="17">
+        <f t="shared" ref="Q22:W22" si="1">SUM(Q23:Q55)</f>
         <v>70</v>
       </c>
-      <c r="R21" s="18">
-        <f t="shared" si="0"/>
+      <c r="R22" s="18">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="S21" s="18">
-        <f t="shared" si="0"/>
+      <c r="S22" s="18">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="T21" s="18">
-        <f t="shared" si="0"/>
+      <c r="T22" s="18">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="U21" s="18">
-        <f t="shared" si="0"/>
+      <c r="U22" s="18">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="V21" s="18">
-        <f t="shared" si="0"/>
+      <c r="V22" s="18">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="W21" s="18">
-        <f t="shared" si="0"/>
+      <c r="W22" s="18">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="X21" s="18">
-        <f t="shared" ref="X21:AJ21" si="1">SUM(X22:X54)</f>
+      <c r="X22" s="18">
+        <f t="shared" ref="X22:AK22" si="2">SUM(X23:X55)</f>
         <v>41</v>
       </c>
-      <c r="Y21" s="18">
-        <f t="shared" si="1"/>
+      <c r="Y22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="Z21" s="18">
-        <f t="shared" si="1"/>
+      <c r="Z22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AA21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AA22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AB21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AB22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AC21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AC22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AD21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AD22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AE21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AE22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AF21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AF22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AG21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AG22" s="18">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="AH21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AH22" s="18">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AI21" s="18">
-        <f t="shared" si="1"/>
+      <c r="AI22" s="18">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AJ21" s="18">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="18"/>
-      <c r="AX21" s="18"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="21"/>
-    </row>
-    <row r="22" spans="1:52">
-      <c r="A22" s="32" t="s">
+      <c r="AJ22" s="18">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AK22" s="18">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="21"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="23" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="8">
-        <v>3</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0</v>
-      </c>
-      <c r="T22" s="8">
-        <v>3</v>
-      </c>
-      <c r="U22" s="8">
-        <v>0</v>
-      </c>
-      <c r="V22" s="8">
-        <v>0</v>
-      </c>
-      <c r="W22" s="8">
-        <v>0</v>
-      </c>
-      <c r="X22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:52">
-      <c r="A23" s="32" t="s">
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="8">
+        <v>3</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>3</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="23" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="8">
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="8">
         <v>10</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R24" s="8">
         <v>10</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S24" s="8">
         <v>10</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T24" s="13">
         <v>10</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U24" s="13">
         <v>10</v>
-      </c>
-      <c r="V23" s="13">
-        <v>3</v>
-      </c>
-      <c r="W23" s="13">
-        <v>1</v>
-      </c>
-      <c r="X23" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="13"/>
-    </row>
-    <row r="24" spans="1:52">
-      <c r="A24" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="8">
-        <v>7</v>
-      </c>
-      <c r="R24" s="13">
-        <v>7</v>
-      </c>
-      <c r="S24" s="13">
-        <v>7</v>
-      </c>
-      <c r="T24" s="13">
-        <v>7</v>
-      </c>
-      <c r="U24" s="13">
-        <v>7</v>
       </c>
       <c r="V24" s="13">
         <v>3</v>
@@ -2232,46 +2340,48 @@
       <c r="AJ24" s="13">
         <v>0</v>
       </c>
-      <c r="AK24" s="13"/>
+      <c r="AK24" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="13">
-        <v>3</v>
+      <c r="A25" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="8">
+        <v>7</v>
       </c>
       <c r="R25" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S25" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T25" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U25" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W25" s="13">
         <v>1</v>
@@ -2315,43 +2425,45 @@
       <c r="AJ25" s="13">
         <v>0</v>
       </c>
-      <c r="AK25" s="13"/>
+      <c r="AK25" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="23" t="s">
+      <c r="A26" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="13">
-        <v>2</v>
-      </c>
-      <c r="R26" s="8">
-        <v>2</v>
-      </c>
-      <c r="S26" s="8">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="R26" s="13">
+        <v>3</v>
+      </c>
+      <c r="S26" s="13">
+        <v>3</v>
       </c>
       <c r="T26" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U26" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" s="13">
         <v>2</v>
@@ -2398,43 +2510,45 @@
       <c r="AJ26" s="13">
         <v>0</v>
       </c>
-      <c r="AK26" s="13"/>
+      <c r="AK26" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="23" t="s">
+      <c r="A27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
       <c r="Q27" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R27" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S27" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T27" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" s="13">
         <v>2</v>
@@ -2481,46 +2595,48 @@
       <c r="AJ27" s="13">
         <v>0</v>
       </c>
-      <c r="AK27" s="13"/>
+      <c r="AK27" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="A28" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S28" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U28" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" s="13">
         <v>1</v>
@@ -2552,10 +2668,10 @@
       <c r="AF28" s="13">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
+      <c r="AG28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="13">
         <v>0</v>
       </c>
       <c r="AI28" s="13">
@@ -2564,1040 +2680,1126 @@
       <c r="AJ28" s="13">
         <v>0</v>
       </c>
-      <c r="AK28" s="13"/>
+      <c r="AK28" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="13">
+        <v>1</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1</v>
+      </c>
+      <c r="S29" s="8">
+        <v>1</v>
+      </c>
+      <c r="T29" s="13">
+        <v>1</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1</v>
+      </c>
+      <c r="V29" s="13">
+        <v>1</v>
+      </c>
+      <c r="W29" s="13">
+        <v>1</v>
+      </c>
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="39" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="13">
-        <v>2</v>
-      </c>
-      <c r="R29" s="13">
-        <v>2</v>
-      </c>
-      <c r="S29" s="13">
-        <v>2</v>
-      </c>
-      <c r="T29" s="13">
-        <v>2</v>
-      </c>
-      <c r="U29" s="13">
-        <v>2</v>
-      </c>
-      <c r="V29" s="13">
-        <v>2</v>
-      </c>
-      <c r="W29" s="13">
-        <v>2</v>
-      </c>
-      <c r="X29" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG29" s="13">
-        <v>2</v>
-      </c>
-      <c r="AH29" s="13">
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="13">
+        <v>2</v>
+      </c>
+      <c r="R30" s="13">
+        <v>2</v>
+      </c>
+      <c r="S30" s="13">
+        <v>2</v>
+      </c>
+      <c r="T30" s="13">
+        <v>2</v>
+      </c>
+      <c r="U30" s="13">
+        <v>2</v>
+      </c>
+      <c r="V30" s="13">
+        <v>2</v>
+      </c>
+      <c r="W30" s="13">
+        <v>2</v>
+      </c>
+      <c r="X30" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="13">
         <v>1</v>
       </c>
-      <c r="AI29" s="13">
+      <c r="AI30" s="13">
         <v>1</v>
       </c>
-      <c r="AJ29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="13"/>
-    </row>
-    <row r="30" spans="1:52">
-      <c r="A30" s="22" t="s">
+      <c r="AJ30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="13">
-        <v>3</v>
-      </c>
-      <c r="R30" s="13">
-        <v>3</v>
-      </c>
-      <c r="S30" s="13">
-        <v>3</v>
-      </c>
-      <c r="T30" s="13">
-        <v>3</v>
-      </c>
-      <c r="U30" s="13">
-        <v>3</v>
-      </c>
-      <c r="V30" s="13">
-        <v>3</v>
-      </c>
-      <c r="W30" s="13">
-        <v>3</v>
-      </c>
-      <c r="X30" s="8">
-        <v>3</v>
-      </c>
-      <c r="Y30" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AE30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="13"/>
-    </row>
-    <row r="31" spans="1:52">
-      <c r="A31" s="22" t="s">
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="13">
+        <v>3</v>
+      </c>
+      <c r="R31" s="13">
+        <v>3</v>
+      </c>
+      <c r="S31" s="13">
+        <v>3</v>
+      </c>
+      <c r="T31" s="13">
+        <v>3</v>
+      </c>
+      <c r="U31" s="13">
+        <v>3</v>
+      </c>
+      <c r="V31" s="13">
+        <v>3</v>
+      </c>
+      <c r="W31" s="13">
+        <v>3</v>
+      </c>
+      <c r="X31" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="13">
-        <v>3</v>
-      </c>
-      <c r="R31" s="13">
-        <v>3</v>
-      </c>
-      <c r="S31" s="13">
-        <v>3</v>
-      </c>
-      <c r="T31" s="13">
-        <v>3</v>
-      </c>
-      <c r="U31" s="13">
-        <v>3</v>
-      </c>
-      <c r="V31" s="13">
-        <v>3</v>
-      </c>
-      <c r="W31" s="13">
-        <v>3</v>
-      </c>
-      <c r="X31" s="13">
-        <v>3</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>3</v>
-      </c>
-      <c r="AK31" s="13"/>
-    </row>
-    <row r="32" spans="1:52">
-      <c r="A32" s="22" t="s">
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="13">
+        <v>3</v>
+      </c>
+      <c r="R32" s="13">
+        <v>3</v>
+      </c>
+      <c r="S32" s="13">
+        <v>3</v>
+      </c>
+      <c r="T32" s="13">
+        <v>3</v>
+      </c>
+      <c r="U32" s="13">
+        <v>3</v>
+      </c>
+      <c r="V32" s="13">
+        <v>3</v>
+      </c>
+      <c r="W32" s="13">
+        <v>3</v>
+      </c>
+      <c r="X32" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="8">
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="8">
         <v>7</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R33" s="13">
         <v>7</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S33" s="13">
         <v>7</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T33" s="13">
         <v>7</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U33" s="13">
         <v>7</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V33" s="13">
         <v>7</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W33" s="13">
         <v>7</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X33" s="13">
         <v>7</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y33" s="13">
         <v>7</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z33" s="13">
         <v>7</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA33" s="13">
         <v>7</v>
       </c>
-      <c r="AB32" s="13">
+      <c r="AB33" s="13">
         <v>7</v>
       </c>
-      <c r="AC32" s="13">
+      <c r="AC33" s="13">
         <v>7</v>
       </c>
-      <c r="AD32" s="13">
+      <c r="AD33" s="13">
         <v>7</v>
       </c>
-      <c r="AE32" s="13">
+      <c r="AE33" s="13">
         <v>7</v>
       </c>
-      <c r="AF32" s="13">
+      <c r="AF33" s="13">
         <v>7</v>
       </c>
-      <c r="AG32" s="13">
+      <c r="AG33" s="13">
         <v>7</v>
       </c>
-      <c r="AH32" s="13">
+      <c r="AH33" s="13">
         <v>6</v>
       </c>
-      <c r="AI32" s="13">
+      <c r="AI33" s="13">
         <v>6</v>
       </c>
-      <c r="AJ32" s="13">
+      <c r="AJ33" s="13">
         <v>5</v>
       </c>
-      <c r="AK32" s="13"/>
-    </row>
-    <row r="33" spans="1:36">
-      <c r="A33" s="22" t="s">
+      <c r="AK33" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="8">
-        <v>2</v>
-      </c>
-      <c r="R33" s="13">
-        <v>2</v>
-      </c>
-      <c r="S33" s="13">
-        <v>2</v>
-      </c>
-      <c r="T33" s="13">
-        <v>2</v>
-      </c>
-      <c r="U33" s="13">
-        <v>2</v>
-      </c>
-      <c r="V33" s="13">
-        <v>2</v>
-      </c>
-      <c r="W33" s="13">
-        <v>2</v>
-      </c>
-      <c r="X33" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AH33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ33" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36">
-      <c r="A34" s="22" t="s">
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="8">
+        <v>2</v>
+      </c>
+      <c r="R34" s="13">
+        <v>2</v>
+      </c>
+      <c r="S34" s="13">
+        <v>2</v>
+      </c>
+      <c r="T34" s="13">
+        <v>2</v>
+      </c>
+      <c r="U34" s="13">
+        <v>2</v>
+      </c>
+      <c r="V34" s="13">
+        <v>2</v>
+      </c>
+      <c r="W34" s="13">
+        <v>2</v>
+      </c>
+      <c r="X34" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="13">
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="13">
         <v>1</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R35" s="13">
         <v>1</v>
       </c>
-      <c r="S34" s="13">
+      <c r="S35" s="13">
         <v>1</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T35" s="13">
         <v>1</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U35" s="13">
         <v>1</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V35" s="13">
         <v>1</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W35" s="13">
         <v>1</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X35" s="13">
         <v>1</v>
       </c>
-      <c r="Y34" s="13">
+      <c r="Y35" s="13">
         <v>1</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="Z35" s="13">
         <v>1</v>
       </c>
-      <c r="AA34" s="13">
+      <c r="AA35" s="13">
         <v>1</v>
       </c>
-      <c r="AB34" s="13">
+      <c r="AB35" s="13">
         <v>1</v>
       </c>
-      <c r="AC34" s="13">
+      <c r="AC35" s="13">
         <v>1</v>
       </c>
-      <c r="AD34" s="13">
+      <c r="AD35" s="13">
         <v>1</v>
       </c>
-      <c r="AE34" s="13">
+      <c r="AE35" s="13">
         <v>1</v>
       </c>
-      <c r="AF34" s="13">
+      <c r="AF35" s="13">
         <v>1</v>
       </c>
-      <c r="AG34" s="13">
+      <c r="AG35" s="13">
         <v>1</v>
       </c>
-      <c r="AH34" s="13">
+      <c r="AH35" s="13">
         <v>1</v>
       </c>
-      <c r="AI34" s="13">
+      <c r="AI35" s="13">
         <v>1</v>
       </c>
-      <c r="AJ34" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
-      <c r="A35" s="22" t="s">
+      <c r="AJ35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="13">
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="13">
         <v>5</v>
       </c>
-      <c r="R35" s="13">
+      <c r="R36" s="13">
         <v>5</v>
       </c>
-      <c r="S35" s="13">
+      <c r="S36" s="13">
         <v>5</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T36" s="13">
         <v>5</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U36" s="13">
         <v>5</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V36" s="13">
         <v>5</v>
       </c>
-      <c r="W35" s="13">
+      <c r="W36" s="13">
         <v>5</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X36" s="13">
         <v>5</v>
       </c>
-      <c r="Y35" s="13">
+      <c r="Y36" s="13">
         <v>5</v>
       </c>
-      <c r="Z35" s="13">
+      <c r="Z36" s="13">
         <v>5</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AA36" s="13">
         <v>5</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AB36" s="13">
         <v>5</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AC36" s="13">
         <v>5</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AD36" s="13">
         <v>5</v>
       </c>
-      <c r="AE35" s="13">
+      <c r="AE36" s="13">
         <v>5</v>
       </c>
-      <c r="AF35" s="13">
+      <c r="AF36" s="13">
         <v>5</v>
       </c>
-      <c r="AG35" s="13">
+      <c r="AG36" s="13">
         <v>5</v>
       </c>
-      <c r="AH35" s="13">
+      <c r="AH36" s="13">
         <v>4</v>
       </c>
-      <c r="AI35" s="13">
+      <c r="AI36" s="13">
         <v>4</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36">
-      <c r="A36" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="8">
-        <v>1</v>
-      </c>
-      <c r="R36" s="13">
-        <v>1</v>
-      </c>
-      <c r="S36" s="13">
-        <v>1</v>
-      </c>
-      <c r="T36" s="13">
-        <v>1</v>
-      </c>
-      <c r="U36" s="13">
-        <v>1</v>
-      </c>
-      <c r="V36" s="13">
-        <v>1</v>
-      </c>
-      <c r="W36" s="13">
-        <v>1</v>
-      </c>
-      <c r="X36" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>1</v>
       </c>
       <c r="AJ36" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:36">
-      <c r="A37" s="22" t="s">
+      <c r="AK36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="8">
+        <v>1</v>
+      </c>
+      <c r="R37" s="13">
+        <v>1</v>
+      </c>
+      <c r="S37" s="13">
+        <v>1</v>
+      </c>
+      <c r="T37" s="13">
+        <v>1</v>
+      </c>
+      <c r="U37" s="13">
+        <v>1</v>
+      </c>
+      <c r="V37" s="13">
+        <v>1</v>
+      </c>
+      <c r="W37" s="13">
+        <v>1</v>
+      </c>
+      <c r="X37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="23" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="13">
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="13">
         <v>10</v>
       </c>
-      <c r="R37" s="13">
+      <c r="R38" s="13">
         <v>10</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S38" s="13">
         <v>10</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T38" s="13">
         <v>10</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U38" s="13">
         <v>10</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V38" s="13">
         <v>10</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W38" s="13">
         <v>10</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X38" s="13">
         <v>10</v>
       </c>
-      <c r="Y37" s="13">
+      <c r="Y38" s="13">
         <v>10</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z38" s="13">
         <v>10</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA38" s="13">
         <v>10</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AB38" s="13">
         <v>10</v>
       </c>
-      <c r="AC37" s="13">
+      <c r="AC38" s="13">
         <v>10</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AD38" s="13">
         <v>10</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AE38" s="13">
         <v>10</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AF38" s="13">
         <v>10</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AG38" s="13">
         <v>10</v>
       </c>
-      <c r="AH37" s="13">
+      <c r="AH38" s="13">
         <v>9</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AI38" s="13">
         <v>9</v>
       </c>
-      <c r="AJ37" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
-      <c r="A38" s="33" t="s">
+      <c r="AJ38" s="13">
+        <v>7</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="8">
-        <v>3</v>
-      </c>
-      <c r="R38" s="13">
-        <v>3</v>
-      </c>
-      <c r="S38" s="13">
-        <v>3</v>
-      </c>
-      <c r="T38" s="13">
-        <v>3</v>
-      </c>
-      <c r="U38" s="13">
-        <v>3</v>
-      </c>
-      <c r="V38" s="13">
-        <v>3</v>
-      </c>
-      <c r="W38" s="13">
-        <v>3</v>
-      </c>
-      <c r="X38" s="13">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36">
-      <c r="A39" s="33" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="8">
+        <v>3</v>
+      </c>
+      <c r="R39" s="13">
+        <v>3</v>
+      </c>
+      <c r="S39" s="13">
+        <v>3</v>
+      </c>
+      <c r="T39" s="13">
+        <v>3</v>
+      </c>
+      <c r="U39" s="13">
+        <v>3</v>
+      </c>
+      <c r="V39" s="13">
+        <v>3</v>
+      </c>
+      <c r="W39" s="13">
+        <v>3</v>
+      </c>
+      <c r="X39" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="8">
-        <v>2</v>
-      </c>
-      <c r="R39" s="13">
-        <v>2</v>
-      </c>
-      <c r="S39" s="13">
-        <v>2</v>
-      </c>
-      <c r="T39" s="13">
-        <v>2</v>
-      </c>
-      <c r="U39" s="13">
-        <v>2</v>
-      </c>
-      <c r="V39" s="13">
-        <v>2</v>
-      </c>
-      <c r="W39" s="13">
-        <v>2</v>
-      </c>
-      <c r="X39" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG39">
-        <v>2</v>
-      </c>
-      <c r="AH39">
-        <v>2</v>
-      </c>
-      <c r="AI39">
-        <v>2</v>
-      </c>
-      <c r="AJ39" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36">
-      <c r="A40" s="33" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="8">
+        <v>2</v>
+      </c>
+      <c r="R40" s="13">
+        <v>2</v>
+      </c>
+      <c r="S40" s="13">
+        <v>2</v>
+      </c>
+      <c r="T40" s="13">
+        <v>2</v>
+      </c>
+      <c r="U40" s="13">
+        <v>2</v>
+      </c>
+      <c r="V40" s="13">
+        <v>2</v>
+      </c>
+      <c r="W40" s="13">
+        <v>2</v>
+      </c>
+      <c r="X40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <v>2</v>
+      </c>
+      <c r="AH40">
+        <v>2</v>
+      </c>
+      <c r="AI40">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="8">
-        <v>2</v>
-      </c>
-      <c r="R40" s="13">
-        <v>2</v>
-      </c>
-      <c r="S40" s="13">
-        <v>2</v>
-      </c>
-      <c r="T40" s="13">
-        <v>2</v>
-      </c>
-      <c r="U40" s="13">
-        <v>2</v>
-      </c>
-      <c r="V40" s="13">
-        <v>2</v>
-      </c>
-      <c r="W40" s="13">
-        <v>2</v>
-      </c>
-      <c r="X40" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-    </row>
-    <row r="42" spans="1:36">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="8">
+        <v>2</v>
+      </c>
+      <c r="R41" s="13">
+        <v>2</v>
+      </c>
+      <c r="S41" s="13">
+        <v>2</v>
+      </c>
+      <c r="T41" s="13">
+        <v>2</v>
+      </c>
+      <c r="U41" s="13">
+        <v>2</v>
+      </c>
+      <c r="V41" s="13">
+        <v>2</v>
+      </c>
+      <c r="W41" s="13">
+        <v>2</v>
+      </c>
+      <c r="X41" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -3614,23 +3816,23 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:36">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
+    <row r="43" spans="1:37">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -3647,23 +3849,23 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:36">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
+    <row r="44" spans="1:37">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -3680,23 +3882,23 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:36">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
+    <row r="45" spans="1:37">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -3713,23 +3915,23 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:36">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
+    <row r="46" spans="1:37">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -3746,23 +3948,23 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:36">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
+    <row r="47" spans="1:37">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -3779,23 +3981,23 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:36">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
+    <row r="48" spans="1:37">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -3813,22 +4015,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -3846,22 +4048,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -3879,22 +4081,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -3912,22 +4114,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -3945,22 +4147,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -3978,22 +4180,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -4010,81 +4212,117 @@
       <c r="AD54" s="8"/>
       <c r="AE54" s="8"/>
     </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="Q19:AZ19"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="M54:P54"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="73">
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M19:P22"/>
+    <mergeCell ref="A19:L22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:P43"/>
     <mergeCell ref="A44:L44"/>
     <mergeCell ref="M44:P44"/>
     <mergeCell ref="A45:L45"/>
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="A46:L46"/>
     <mergeCell ref="M46:P46"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="Q19:AZ19"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="M55:P55"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M19:P21"/>
-    <mergeCell ref="A19:L21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A48:L48"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -4108,20 +4346,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4148,61 +4386,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -4251,22 +4489,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -4330,22 +4568,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -4363,22 +4601,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -4396,22 +4634,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -4429,22 +4667,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -4462,22 +4700,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -4495,22 +4733,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -4528,22 +4766,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -4561,22 +4799,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -4594,22 +4832,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -4627,22 +4865,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -4660,22 +4898,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -4693,22 +4931,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -4726,22 +4964,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -4759,22 +4997,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -4792,22 +5030,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -4825,22 +5063,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -4858,22 +5096,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -4891,22 +5129,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -4924,22 +5162,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -4957,22 +5195,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -4990,22 +5228,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -5023,22 +5261,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -5056,22 +5294,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -5089,22 +5327,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -5122,22 +5360,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -5155,22 +5393,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -5188,22 +5426,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -5221,22 +5459,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5254,22 +5492,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -5287,22 +5525,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -5321,59 +5559,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -5386,8 +5571,61 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5409,20 +5647,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5449,61 +5687,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="24"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -5552,22 +5790,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -5631,22 +5869,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5664,22 +5902,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5697,22 +5935,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5730,22 +5968,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5763,22 +6001,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5796,22 +6034,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5829,22 +6067,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5862,22 +6100,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5895,22 +6133,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5928,22 +6166,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5961,22 +6199,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5994,22 +6232,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -6027,22 +6265,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -6060,22 +6298,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -6093,22 +6331,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -6126,22 +6364,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6159,22 +6397,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -6192,22 +6430,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6225,22 +6463,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6258,22 +6496,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6291,22 +6529,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6324,22 +6562,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6357,22 +6595,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6390,22 +6628,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6423,22 +6661,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -6456,22 +6694,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -6489,22 +6727,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6522,22 +6760,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -6555,22 +6793,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6588,22 +6826,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6622,59 +6860,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -6687,8 +6872,61 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20900" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -731,17 +731,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -767,33 +786,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,27 +1021,48 @@
                 <c:pt idx="25">
                   <c:v>25.0</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72448520"/>
-        <c:axId val="72451560"/>
+        <c:axId val="312973160"/>
+        <c:axId val="236201592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72448520"/>
+        <c:axId val="312973160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72451560"/>
+        <c:crossAx val="236201592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72451560"/>
+        <c:axId val="236201592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1070,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72448520"/>
+        <c:crossAx val="312973160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,7 +1447,7 @@
   <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
@@ -1435,16 +1456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1487,17 +1508,17 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="26">
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="31">
         <v>0.7</v>
       </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="1:29" ht="13" customHeight="1">
       <c r="A4" s="15"/>
@@ -1770,82 +1791,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="27"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="35"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1956,28 +1977,28 @@
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="35"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
       <c r="Q21" s="22">
         <f>Q22/$AA$3</f>
         <v>100</v>
       </c>
       <c r="R21" s="22">
-        <f t="shared" ref="R21:AP21" si="0">R22/$AA$3</f>
+        <f t="shared" ref="R21:AW21" si="0">R22/$AA$3</f>
         <v>95.714285714285722</v>
       </c>
       <c r="S21" s="22">
@@ -2076,34 +2097,55 @@
         <f t="shared" si="0"/>
         <v>35.714285714285715</v>
       </c>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
-      <c r="AV21" s="23"/>
-      <c r="AW21" s="23"/>
+      <c r="AQ21" s="22">
+        <f t="shared" si="0"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="AR21" s="22">
+        <f t="shared" si="0"/>
+        <v>31.428571428571431</v>
+      </c>
+      <c r="AS21" s="22">
+        <f t="shared" si="0"/>
+        <v>30.000000000000004</v>
+      </c>
+      <c r="AT21" s="22">
+        <f t="shared" si="0"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="AU21" s="22">
+        <f t="shared" si="0"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AV21" s="22">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="AW21" s="22">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
       <c r="AX21" s="23"/>
       <c r="AY21" s="23"/>
       <c r="AZ21" s="24"/>
     </row>
     <row r="22" spans="1:52" ht="14" thickBot="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
       <c r="Q22" s="17">
         <f t="shared" ref="Q22:W22" si="1">SUM(Q23:Q55)</f>
         <v>70</v>
@@ -2205,41 +2247,62 @@
         <v>25</v>
       </c>
       <c r="AP22" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(AP23:AP55)</f>
         <v>25</v>
       </c>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="18"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
+      <c r="AQ22" s="18">
+        <f t="shared" ref="AQ22:AW22" si="3">SUM(AQ23:AQ55)</f>
+        <v>24</v>
+      </c>
+      <c r="AR22" s="18">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AS22" s="18">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AT22" s="18">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AU22" s="18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AV22" s="18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AW22" s="18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="AX22" s="18"/>
       <c r="AY22" s="18"/>
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="8">
         <v>3</v>
       </c>
@@ -2318,28 +2381,49 @@
       <c r="AP23">
         <v>0</v>
       </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="8">
         <v>10</v>
       </c>
@@ -2418,28 +2502,49 @@
       <c r="AP24" s="13">
         <v>0</v>
       </c>
+      <c r="AQ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="28" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="8">
         <v>7</v>
       </c>
@@ -2518,28 +2623,49 @@
       <c r="AP25" s="13">
         <v>0</v>
       </c>
+      <c r="AQ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="28" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="13">
         <v>3</v>
       </c>
@@ -2618,28 +2744,49 @@
       <c r="AP26" s="13">
         <v>0</v>
       </c>
+      <c r="AQ26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="28" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="13">
         <v>2</v>
       </c>
@@ -2718,28 +2865,49 @@
       <c r="AP27" s="13">
         <v>0</v>
       </c>
+      <c r="AQ27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="28" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="13">
         <v>3</v>
       </c>
@@ -2818,28 +2986,49 @@
       <c r="AP28">
         <v>0</v>
       </c>
+      <c r="AQ28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="28" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="13">
         <v>1</v>
       </c>
@@ -2918,28 +3107,49 @@
       <c r="AP29">
         <v>0</v>
       </c>
+      <c r="AQ29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="26" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
       <c r="Q30" s="13">
         <v>2</v>
       </c>
@@ -3018,28 +3228,49 @@
       <c r="AP30">
         <v>0</v>
       </c>
+      <c r="AQ30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="13">
         <v>3</v>
       </c>
@@ -3118,28 +3349,49 @@
       <c r="AP31" s="13">
         <v>1</v>
       </c>
+      <c r="AQ31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="13">
         <v>3</v>
       </c>
@@ -3218,28 +3470,49 @@
       <c r="AP32" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:42">
-      <c r="A33" s="27" t="s">
+      <c r="AQ32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
+      <c r="A33" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="8">
         <v>7</v>
       </c>
@@ -3318,28 +3591,49 @@
       <c r="AP33" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:42">
-      <c r="A34" s="27" t="s">
+      <c r="AQ33" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
+      <c r="A34" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
       <c r="Q34" s="8">
         <v>2</v>
       </c>
@@ -3418,28 +3712,49 @@
       <c r="AP34" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:42">
-      <c r="A35" s="27" t="s">
+      <c r="AQ34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
+      <c r="A35" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="13">
         <v>1</v>
       </c>
@@ -3518,28 +3833,49 @@
       <c r="AP35" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:42">
-      <c r="A36" s="27" t="s">
+      <c r="AQ35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
+      <c r="A36" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
@@ -3618,28 +3954,49 @@
       <c r="AP36" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:42">
-      <c r="A37" s="27" t="s">
+      <c r="AQ36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
+      <c r="A37" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="28" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
       <c r="Q37" s="8">
         <v>1</v>
       </c>
@@ -3718,28 +4075,49 @@
       <c r="AP37" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:42">
-      <c r="A38" s="27" t="s">
+      <c r="AQ37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49">
+      <c r="A38" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="28" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
@@ -3818,26 +4196,47 @@
       <c r="AP38" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:42">
-      <c r="A39" s="38" t="s">
+      <c r="AQ38" s="13">
+        <v>7</v>
+      </c>
+      <c r="AR38" s="13">
+        <v>7</v>
+      </c>
+      <c r="AS38" s="13">
+        <v>7</v>
+      </c>
+      <c r="AT38" s="13">
+        <v>3</v>
+      </c>
+      <c r="AU38" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49">
+      <c r="A39" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="8">
         <v>3</v>
       </c>
@@ -3916,26 +4315,47 @@
       <c r="AP39" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:42">
-      <c r="A40" s="38" t="s">
+      <c r="AQ39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49">
+      <c r="A40" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
       <c r="Q40" s="8">
         <v>2</v>
       </c>
@@ -4014,26 +4434,47 @@
       <c r="AP40" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:42">
-      <c r="A41" s="38" t="s">
+      <c r="AQ40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49">
+      <c r="A41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="8">
         <v>2</v>
       </c>
@@ -4112,24 +4553,45 @@
       <c r="AP41" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:42">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
+      <c r="AQ41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AW41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -4146,23 +4608,23 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:42">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
+    <row r="43" spans="1:49">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -4179,23 +4641,23 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:42">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+    <row r="44" spans="1:49">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -4212,23 +4674,23 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:42">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
+    <row r="45" spans="1:49">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -4245,23 +4707,23 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:42">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
+    <row r="46" spans="1:49">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -4278,23 +4740,23 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:42">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
+    <row r="47" spans="1:49">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -4311,23 +4773,23 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:42">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
+    <row r="48" spans="1:49">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -4345,22 +4807,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -4378,22 +4840,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -4411,22 +4873,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -4444,22 +4906,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -4477,22 +4939,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -4510,22 +4972,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -4543,22 +5005,22 @@
       <c r="AE54" s="8"/>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
@@ -4577,6 +5039,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M19:P22"/>
+    <mergeCell ref="A19:L22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:P50"/>
     <mergeCell ref="Q19:AZ19"/>
     <mergeCell ref="A54:L54"/>
     <mergeCell ref="M54:P54"/>
@@ -4593,63 +5112,6 @@
     <mergeCell ref="A53:L53"/>
     <mergeCell ref="M53:P53"/>
     <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M19:P22"/>
-    <mergeCell ref="A19:L22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4675,20 +5137,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="A1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4715,61 +5177,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="42"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="27"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="35"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -4818,22 +5280,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -4897,22 +5359,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -4930,22 +5392,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -4963,22 +5425,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -4996,22 +5458,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5029,22 +5491,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5062,22 +5524,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5095,22 +5557,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5128,22 +5590,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5161,22 +5623,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5194,22 +5656,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5227,22 +5689,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5260,22 +5722,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -5293,22 +5755,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -5326,22 +5788,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -5359,22 +5821,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -5392,22 +5854,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -5425,22 +5887,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -5458,22 +5920,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -5491,22 +5953,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -5524,22 +5986,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -5557,22 +6019,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -5590,22 +6052,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -5623,22 +6085,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -5656,22 +6118,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -5689,22 +6151,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -5722,22 +6184,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -5755,22 +6217,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -5788,22 +6250,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5821,22 +6283,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -5854,22 +6316,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -5888,59 +6350,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -5953,6 +6362,59 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5976,20 +6438,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="A1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6016,61 +6478,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="42"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="27"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="35"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -6119,22 +6581,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -6198,22 +6660,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -6231,22 +6693,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -6264,22 +6726,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -6297,22 +6759,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6330,22 +6792,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -6363,22 +6825,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -6396,22 +6858,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -6429,22 +6891,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -6462,22 +6924,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -6495,22 +6957,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -6528,22 +6990,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -6561,22 +7023,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -6594,22 +7056,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -6627,22 +7089,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -6660,22 +7122,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -6693,22 +7155,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6726,22 +7188,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -6759,22 +7221,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6792,22 +7254,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6825,22 +7287,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6858,22 +7320,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6891,22 +7353,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6924,22 +7386,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6957,22 +7419,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6990,22 +7452,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -7023,22 +7485,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -7056,22 +7518,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -7089,22 +7551,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -7122,22 +7584,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -7155,22 +7617,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -7189,59 +7651,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -7254,6 +7663,59 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -731,36 +731,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -786,14 +767,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,27 +1042,30 @@
                 <c:pt idx="32">
                   <c:v>10.0</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="312973160"/>
-        <c:axId val="236201592"/>
+        <c:axId val="286547336"/>
+        <c:axId val="286550360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312973160"/>
+        <c:axId val="286547336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236201592"/>
+        <c:crossAx val="286550360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236201592"/>
+        <c:axId val="286550360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1073,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="312973160"/>
+        <c:crossAx val="286547336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1447,7 +1450,7 @@
   <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+      <selection activeCell="AX37" sqref="AX37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
@@ -1456,16 +1459,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1508,17 +1511,17 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="31">
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="26">
         <v>0.7</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
     </row>
     <row r="4" spans="1:29" ht="13" customHeight="1">
       <c r="A4" s="15"/>
@@ -1791,82 +1794,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="27"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="41"/>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="41"/>
+      <c r="AV19" s="41"/>
+      <c r="AW19" s="41"/>
+      <c r="AX19" s="41"/>
+      <c r="AY19" s="41"/>
+      <c r="AZ19" s="42"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="42"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1977,28 +1980,28 @@
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="42"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="22">
         <f>Q22/$AA$3</f>
         <v>100</v>
       </c>
       <c r="R21" s="22">
-        <f t="shared" ref="R21:AW21" si="0">R22/$AA$3</f>
+        <f t="shared" ref="R21:AX21" si="0">R22/$AA$3</f>
         <v>95.714285714285722</v>
       </c>
       <c r="S21" s="22">
@@ -2125,27 +2128,30 @@
         <f t="shared" si="0"/>
         <v>14.285714285714286</v>
       </c>
-      <c r="AX21" s="23"/>
+      <c r="AX21" s="22">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
       <c r="AY21" s="23"/>
       <c r="AZ21" s="24"/>
     </row>
     <row r="22" spans="1:52" ht="14" thickBot="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="17">
         <f t="shared" ref="Q22:W22" si="1">SUM(Q23:Q55)</f>
         <v>70</v>
@@ -2175,7 +2181,7 @@
         <v>47</v>
       </c>
       <c r="X22" s="18">
-        <f t="shared" ref="X22:AP22" si="2">SUM(X23:X55)</f>
+        <f t="shared" ref="X22:AO22" si="2">SUM(X23:X55)</f>
         <v>41</v>
       </c>
       <c r="Y22" s="18">
@@ -2251,7 +2257,7 @@
         <v>25</v>
       </c>
       <c r="AQ22" s="18">
-        <f t="shared" ref="AQ22:AW22" si="3">SUM(AQ23:AQ55)</f>
+        <f t="shared" ref="AQ22:AX22" si="3">SUM(AQ23:AQ55)</f>
         <v>24</v>
       </c>
       <c r="AR22" s="18">
@@ -2278,31 +2284,34 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AX22" s="18"/>
+      <c r="AX22" s="18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="AY22" s="18"/>
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
       <c r="Q23" s="8">
         <v>3</v>
       </c>
@@ -2402,28 +2411,31 @@
       <c r="AW23">
         <v>0</v>
       </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="8">
         <v>10</v>
       </c>
@@ -2523,28 +2535,31 @@
       <c r="AW24">
         <v>0</v>
       </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="29" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
       <c r="Q25" s="8">
         <v>7</v>
       </c>
@@ -2644,28 +2659,31 @@
       <c r="AW25">
         <v>0</v>
       </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="29" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="13">
         <v>3</v>
       </c>
@@ -2765,28 +2783,31 @@
       <c r="AW26">
         <v>0</v>
       </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="29" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="13">
         <v>2</v>
       </c>
@@ -2886,28 +2907,31 @@
       <c r="AW27">
         <v>0</v>
       </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="29" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="13">
         <v>3</v>
       </c>
@@ -3007,28 +3031,31 @@
       <c r="AW28">
         <v>0</v>
       </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="29" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="13">
         <v>1</v>
       </c>
@@ -3128,28 +3155,31 @@
       <c r="AW29" s="13">
         <v>0</v>
       </c>
+      <c r="AX29" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="13">
         <v>2</v>
       </c>
@@ -3249,28 +3279,31 @@
       <c r="AW30" s="13">
         <v>0</v>
       </c>
+      <c r="AX30" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="29" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
       <c r="Q31" s="13">
         <v>3</v>
       </c>
@@ -3370,28 +3403,31 @@
       <c r="AW31" s="13">
         <v>0</v>
       </c>
+      <c r="AX31" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="29" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="13">
         <v>3</v>
       </c>
@@ -3491,28 +3527,31 @@
       <c r="AW32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:49">
-      <c r="A33" s="34" t="s">
+      <c r="AX32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
+      <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="29" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
       <c r="Q33" s="8">
         <v>7</v>
       </c>
@@ -3612,28 +3651,31 @@
       <c r="AW33" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:49">
-      <c r="A34" s="34" t="s">
+      <c r="AX33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="29" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
       <c r="Q34" s="8">
         <v>2</v>
       </c>
@@ -3733,28 +3775,31 @@
       <c r="AW34" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:49">
-      <c r="A35" s="34" t="s">
+      <c r="AX34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="A35" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="29" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="13">
         <v>1</v>
       </c>
@@ -3854,28 +3899,31 @@
       <c r="AW35" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:49">
-      <c r="A36" s="34" t="s">
+      <c r="AX35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="A36" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="29" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
@@ -3975,28 +4023,31 @@
       <c r="AW36" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:49">
-      <c r="A37" s="34" t="s">
+      <c r="AX36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="A37" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="29" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="8">
         <v>1</v>
       </c>
@@ -4096,28 +4147,31 @@
       <c r="AW37" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:49">
-      <c r="A38" s="34" t="s">
+      <c r="AX37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50">
+      <c r="A38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="29" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
@@ -4217,26 +4271,29 @@
       <c r="AW38" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:49">
-      <c r="A39" s="33" t="s">
+      <c r="AX38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50">
+      <c r="A39" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
       <c r="Q39" s="8">
         <v>3</v>
       </c>
@@ -4336,26 +4393,29 @@
       <c r="AW39" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:49">
-      <c r="A40" s="33" t="s">
+      <c r="AX39" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50">
+      <c r="A40" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
       <c r="Q40" s="8">
         <v>2</v>
       </c>
@@ -4455,26 +4515,29 @@
       <c r="AW40" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:49">
-      <c r="A41" s="33" t="s">
+      <c r="AX40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50">
+      <c r="A41" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="8">
         <v>2</v>
       </c>
@@ -4574,24 +4637,27 @@
       <c r="AW41" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:49">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
+      <c r="AX41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
@@ -4608,23 +4674,23 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:49">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
+    <row r="43" spans="1:50">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
@@ -4641,23 +4707,23 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:49">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
+    <row r="44" spans="1:50">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -4674,23 +4740,23 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:49">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
+    <row r="45" spans="1:50">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -4707,23 +4773,23 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:49">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
+    <row r="46" spans="1:50">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -4740,23 +4806,23 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:49">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
+    <row r="47" spans="1:50">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -4773,23 +4839,23 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:49">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
+    <row r="48" spans="1:50">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -4807,22 +4873,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -4840,22 +4906,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -4873,22 +4939,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -4906,22 +4972,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -4939,22 +5005,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -4972,22 +5038,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -5005,22 +5071,22 @@
       <c r="AE54" s="8"/>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
@@ -5038,7 +5104,65 @@
       <c r="AE55" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="73">
+    <mergeCell ref="Q19:AZ19"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="A38:L38"/>
@@ -5055,63 +5179,6 @@
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="Q19:AZ19"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="A48:L48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5137,20 +5204,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="A1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5177,61 +5244,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -5280,22 +5347,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -5359,22 +5426,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5392,22 +5459,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5425,22 +5492,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5458,22 +5525,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5491,22 +5558,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5524,22 +5591,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5557,22 +5624,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5590,22 +5657,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5623,22 +5690,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5656,22 +5723,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5689,22 +5756,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5722,22 +5789,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -5755,22 +5822,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -5788,22 +5855,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -5821,22 +5888,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -5854,22 +5921,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -5887,22 +5954,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -5920,22 +5987,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -5953,22 +6020,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -5986,22 +6053,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6019,22 +6086,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6052,22 +6119,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6085,22 +6152,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6118,22 +6185,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6151,22 +6218,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -6184,22 +6251,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -6217,22 +6284,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6250,22 +6317,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -6283,22 +6350,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6316,22 +6383,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6349,7 +6416,61 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -6362,59 +6483,6 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6438,20 +6506,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="A1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6478,61 +6546,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -6581,22 +6649,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -6660,22 +6728,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -6693,22 +6761,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -6726,22 +6794,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -6759,22 +6827,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6792,22 +6860,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -6825,22 +6893,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -6858,22 +6926,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -6891,22 +6959,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -6924,22 +6992,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -6957,22 +7025,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -6990,22 +7058,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -7023,22 +7091,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -7056,22 +7124,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -7089,22 +7157,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -7122,22 +7190,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -7155,22 +7223,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -7188,22 +7256,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -7221,22 +7289,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -7254,22 +7322,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -7287,22 +7355,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -7320,22 +7388,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -7353,22 +7421,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -7386,22 +7454,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -7419,22 +7487,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -7452,22 +7520,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -7485,22 +7553,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -7518,22 +7586,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -7551,22 +7619,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -7584,22 +7652,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -7617,22 +7685,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -7650,7 +7718,61 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:L5"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="Q3:AE3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="A34:L34"/>
@@ -7663,59 +7785,6 @@
     <mergeCell ref="M32:P32"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:L5"/>
-    <mergeCell ref="M3:P5"/>
-    <mergeCell ref="Q3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Job Assignment</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CH, RV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Create the Skeleton of the App Page</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,6 +254,34 @@
   </si>
   <si>
     <t xml:space="preserve">Velocity: </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV, AS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Script Formation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +295,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -301,6 +325,11 @@
       <color indexed="81"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -328,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -673,17 +702,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -730,7 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -794,6 +811,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,128 +964,131 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>70.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.0</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>41.0</c:v>
+                <c:pt idx="20">
+                  <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>37.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.0</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.0</c:v>
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="286547336"/>
-        <c:axId val="286550360"/>
+        <c:axId val="313707960"/>
+        <c:axId val="313690024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286547336"/>
+        <c:axId val="313707960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286550360"/>
+        <c:crossAx val="313690024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286550360"/>
+        <c:axId val="313690024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1096,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286547336"/>
+        <c:crossAx val="313707960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1450,7 +1473,7 @@
   <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AX37" sqref="AX37"/>
+      <selection activeCell="A42" sqref="A42:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
@@ -1459,16 +1482,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1511,17 +1534,17 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="W3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="26">
+      <c r="W3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25">
         <v>0.7</v>
       </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
     </row>
     <row r="4" spans="1:29" ht="13" customHeight="1">
       <c r="A4" s="15"/>
@@ -1794,82 +1817,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="42"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="40"/>
+      <c r="AX19" s="40"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="41"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="35"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1980,338 +2003,344 @@
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="35"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
       <c r="Q21" s="22">
         <f>Q22/$AA$3</f>
-        <v>100</v>
+        <v>115.71428571428572</v>
       </c>
       <c r="R21" s="22">
-        <f t="shared" ref="R21:AX21" si="0">R22/$AA$3</f>
-        <v>95.714285714285722</v>
+        <f t="shared" ref="R21:AY21" si="0">R22/$AA$3</f>
+        <v>111.42857142857143</v>
       </c>
       <c r="S21" s="22">
         <f t="shared" si="0"/>
-        <v>95.714285714285722</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="T21" s="22">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>115.71428571428572</v>
       </c>
       <c r="U21" s="22">
         <f t="shared" si="0"/>
-        <v>95.714285714285722</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="V21" s="22">
         <f t="shared" si="0"/>
-        <v>77.142857142857153</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="W21" s="22">
         <f t="shared" si="0"/>
-        <v>67.142857142857153</v>
+        <v>82.857142857142861</v>
       </c>
       <c r="X21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="Y21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="Z21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="AA21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="AB21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="AC21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="AD21" s="22">
         <f t="shared" si="0"/>
-        <v>57.142857142857146</v>
+        <v>72.857142857142861</v>
       </c>
       <c r="AE21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="AF21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="AG21" s="22">
         <f t="shared" si="0"/>
-        <v>58.571428571428577</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="AH21" s="22">
         <f t="shared" si="0"/>
-        <v>52.857142857142861</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="AI21" s="22">
         <f t="shared" si="0"/>
-        <v>52.857142857142861</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="AJ21" s="22">
         <f t="shared" si="0"/>
-        <v>41.428571428571431</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="AK21" s="22">
         <f t="shared" si="0"/>
-        <v>41.428571428571431</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="AL21" s="22">
         <f>AL22/$AA$3</f>
-        <v>37.142857142857146</v>
+        <v>52.857142857142861</v>
       </c>
       <c r="AM21" s="22">
         <f t="shared" si="0"/>
-        <v>35.714285714285715</v>
+        <v>50</v>
       </c>
       <c r="AN21" s="22">
         <f t="shared" si="0"/>
-        <v>35.714285714285715</v>
+        <v>50</v>
       </c>
       <c r="AO21" s="22">
         <f t="shared" si="0"/>
-        <v>35.714285714285715</v>
+        <v>50</v>
       </c>
       <c r="AP21" s="22">
         <f t="shared" si="0"/>
-        <v>35.714285714285715</v>
+        <v>48.571428571428577</v>
       </c>
       <c r="AQ21" s="22">
         <f t="shared" si="0"/>
-        <v>34.285714285714285</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="AR21" s="22">
         <f t="shared" si="0"/>
-        <v>31.428571428571431</v>
+        <v>42.857142857142861</v>
       </c>
       <c r="AS21" s="22">
         <f t="shared" si="0"/>
-        <v>30.000000000000004</v>
+        <v>38.571428571428577</v>
       </c>
       <c r="AT21" s="22">
         <f t="shared" si="0"/>
-        <v>21.428571428571431</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="AU21" s="22">
         <f t="shared" si="0"/>
-        <v>17.142857142857142</v>
+        <v>27.142857142857146</v>
       </c>
       <c r="AV21" s="22">
         <f t="shared" si="0"/>
-        <v>14.285714285714286</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="AW21" s="22">
         <f t="shared" si="0"/>
-        <v>14.285714285714286</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="AX21" s="22">
         <f t="shared" si="0"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="AY21" s="23"/>
-      <c r="AZ21" s="24"/>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="AY21" s="22">
+        <f t="shared" si="0"/>
+        <v>15.714285714285715</v>
+      </c>
+      <c r="AZ21" s="23"/>
     </row>
     <row r="22" spans="1:52" ht="14" thickBot="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
       <c r="Q22" s="17">
         <f t="shared" ref="Q22:W22" si="1">SUM(Q23:Q55)</f>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="R22" s="18">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="S22" s="18">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="T22" s="18">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="U22" s="18">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="V22" s="18">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="W22" s="18">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="X22" s="18">
         <f t="shared" ref="X22:AO22" si="2">SUM(X23:X55)</f>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Y22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Z22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AA22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AB22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AC22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD22" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AE22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AF22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AG22" s="18">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AH22" s="18">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AI22" s="18">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="AJ22" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AK22" s="18">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AL22" s="18">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="AM22" s="18">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AN22" s="18">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AO22" s="18">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AP22" s="18">
         <f>SUM(AP23:AP55)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AQ22" s="18">
-        <f t="shared" ref="AQ22:AX22" si="3">SUM(AQ23:AQ55)</f>
-        <v>24</v>
+        <f t="shared" ref="AQ22:AY22" si="3">SUM(AQ23:AQ55)</f>
+        <v>32</v>
       </c>
       <c r="AR22" s="18">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AS22" s="18">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AT22" s="18">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU22" s="18">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AV22" s="18">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AW22" s="18">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AX22" s="18">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AY22" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="AY22" s="18">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="AZ22" s="21"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="8">
         <v>3</v>
       </c>
@@ -2414,28 +2443,34 @@
       <c r="AX23">
         <v>0</v>
       </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
       <c r="Q24" s="8">
         <v>10</v>
       </c>
@@ -2538,28 +2573,34 @@
       <c r="AX24">
         <v>0</v>
       </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="28" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="8">
         <v>7</v>
       </c>
@@ -2662,28 +2703,34 @@
       <c r="AX25">
         <v>0</v>
       </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="28" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
       <c r="Q26" s="13">
         <v>3</v>
       </c>
@@ -2786,28 +2833,34 @@
       <c r="AX26">
         <v>0</v>
       </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="28" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="13">
         <v>2</v>
       </c>
@@ -2910,28 +2963,34 @@
       <c r="AX27">
         <v>0</v>
       </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="28" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
       <c r="Q28" s="13">
         <v>3</v>
       </c>
@@ -3034,28 +3093,34 @@
       <c r="AX28">
         <v>0</v>
       </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="28" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
       <c r="Q29" s="13">
         <v>1</v>
       </c>
@@ -3158,28 +3223,34 @@
       <c r="AX29" s="13">
         <v>0</v>
       </c>
+      <c r="AY29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="26" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="13">
         <v>2</v>
       </c>
@@ -3282,28 +3353,34 @@
       <c r="AX30" s="13">
         <v>0</v>
       </c>
+      <c r="AY30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
       <c r="Q31" s="13">
         <v>3</v>
       </c>
@@ -3406,28 +3483,34 @@
       <c r="AX31" s="13">
         <v>0</v>
       </c>
+      <c r="AY31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="28" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
       <c r="Q32" s="13">
         <v>3</v>
       </c>
@@ -3530,28 +3613,34 @@
       <c r="AX32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:50">
-      <c r="A33" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28" t="s">
+      <c r="AY32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
       <c r="Q33" s="8">
         <v>7</v>
       </c>
@@ -3654,28 +3743,34 @@
       <c r="AX33" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:50">
-      <c r="A34" s="27" t="s">
+      <c r="AY33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
       <c r="Q34" s="8">
         <v>2</v>
       </c>
@@ -3778,28 +3873,31 @@
       <c r="AX34" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:50">
-      <c r="A35" s="27" t="s">
+      <c r="AY34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="13">
         <v>1</v>
       </c>
@@ -3902,28 +4000,34 @@
       <c r="AX35" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:50">
-      <c r="A36" s="27" t="s">
+      <c r="AY35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
@@ -4026,28 +4130,34 @@
       <c r="AX36" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:50">
-      <c r="A37" s="27" t="s">
+      <c r="AY36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="28" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
       <c r="Q37" s="8">
         <v>1</v>
       </c>
@@ -4150,28 +4260,31 @@
       <c r="AX37" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:50">
-      <c r="A38" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
+      <c r="AY37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
@@ -4263,37 +4376,45 @@
         <v>3</v>
       </c>
       <c r="AU38" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV38" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW38" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50">
-      <c r="A39" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY38" s="13">
+        <v>2</v>
+      </c>
+      <c r="AZ38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="A39" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
       <c r="Q39" s="8">
         <v>3</v>
       </c>
@@ -4396,26 +4517,31 @@
       <c r="AX39" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:50">
-      <c r="A40" s="38" t="s">
+      <c r="AY39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="8">
         <v>2</v>
       </c>
@@ -4518,26 +4644,31 @@
       <c r="AX40" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:50">
-      <c r="A41" s="38" t="s">
+      <c r="AY40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
       <c r="Q41" s="8">
         <v>2</v>
       </c>
@@ -4640,90 +4771,287 @@
       <c r="AX41" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:50">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-    </row>
-    <row r="43" spans="1:50">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-    </row>
-    <row r="44" spans="1:50">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="AY41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="13">
+        <v>6</v>
+      </c>
+      <c r="R42" s="13">
+        <v>6</v>
+      </c>
+      <c r="S42" s="13">
+        <v>6</v>
+      </c>
+      <c r="T42" s="13">
+        <v>6</v>
+      </c>
+      <c r="U42" s="13">
+        <v>6</v>
+      </c>
+      <c r="V42" s="13">
+        <v>6</v>
+      </c>
+      <c r="W42" s="13">
+        <v>6</v>
+      </c>
+      <c r="X42" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>6</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AF42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AH42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AK42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AP42" s="13">
+        <v>6</v>
+      </c>
+      <c r="AQ42" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR42" s="13">
+        <v>5</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT42" s="13">
+        <v>4</v>
+      </c>
+      <c r="AU42" s="13">
+        <v>4</v>
+      </c>
+      <c r="AV42" s="13">
+        <v>3</v>
+      </c>
+      <c r="AW42" s="13">
+        <v>3</v>
+      </c>
+      <c r="AX42" s="13">
+        <v>2</v>
+      </c>
+      <c r="AY42" s="13">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="13">
+        <v>5</v>
+      </c>
+      <c r="R43" s="13">
+        <v>5</v>
+      </c>
+      <c r="S43" s="13">
+        <v>5</v>
+      </c>
+      <c r="T43" s="13">
+        <v>5</v>
+      </c>
+      <c r="U43" s="13">
+        <v>5</v>
+      </c>
+      <c r="V43" s="13">
+        <v>5</v>
+      </c>
+      <c r="W43" s="13">
+        <v>5</v>
+      </c>
+      <c r="X43" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AI43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AL43" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM43" s="13">
+        <v>4</v>
+      </c>
+      <c r="AN43" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO43" s="13">
+        <v>4</v>
+      </c>
+      <c r="AP43" s="13">
+        <v>3</v>
+      </c>
+      <c r="AQ43" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR43" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS43" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -4740,23 +5068,23 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:50">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
+    <row r="45" spans="1:52">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -4773,23 +5101,23 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:50">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
+    <row r="46" spans="1:52">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -4806,23 +5134,23 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:50">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
+    <row r="47" spans="1:52">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -4839,23 +5167,23 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:50">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
+    <row r="48" spans="1:52">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -4873,22 +5201,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -4906,22 +5234,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -4939,22 +5267,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -4972,22 +5300,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -5005,22 +5333,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -5038,22 +5366,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -5071,22 +5399,22 @@
       <c r="AE54" s="8"/>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
@@ -5104,7 +5432,6 @@
       <c r="AE55" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="73">
     <mergeCell ref="Q19:AZ19"/>
     <mergeCell ref="A54:L54"/>
@@ -5182,7 +5509,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -5204,20 +5530,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="A1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5244,61 +5570,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="41"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="35"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -5347,22 +5673,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -5426,22 +5752,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5459,22 +5785,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5492,22 +5818,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5525,22 +5851,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5558,22 +5884,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5591,22 +5917,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5624,22 +5950,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5657,22 +5983,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5690,22 +6016,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5723,22 +6049,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -5756,22 +6082,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -5789,22 +6115,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -5822,22 +6148,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -5855,22 +6181,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -5888,22 +6214,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -5921,22 +6247,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -5954,22 +6280,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -5987,22 +6313,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6020,22 +6346,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6053,22 +6379,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6086,22 +6412,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6119,22 +6445,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6152,22 +6478,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6185,22 +6511,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6218,22 +6544,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -6251,22 +6577,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -6284,22 +6610,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6317,22 +6643,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -6350,22 +6676,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6383,22 +6709,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6416,7 +6742,6 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -6506,20 +6831,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="A1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6546,61 +6871,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="41"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="35"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -6649,22 +6974,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -6728,22 +7053,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -6761,22 +7086,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -6794,22 +7119,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -6827,22 +7152,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6860,22 +7185,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -6893,22 +7218,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -6926,22 +7251,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -6959,22 +7284,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -6992,22 +7317,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -7025,22 +7350,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -7058,22 +7383,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -7091,22 +7416,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -7124,22 +7449,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -7157,22 +7482,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -7190,22 +7515,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -7223,22 +7548,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -7256,22 +7581,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -7289,22 +7614,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -7322,22 +7647,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -7355,22 +7680,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -7388,22 +7713,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -7421,22 +7746,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -7454,22 +7779,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -7487,22 +7812,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -7520,22 +7845,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -7553,22 +7878,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -7586,22 +7911,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -7619,22 +7944,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -7652,22 +7977,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -7685,22 +8010,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -7718,7 +8043,6 @@
       <c r="AE35" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="65">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:J1"/>

--- a/Burn Down Chart.xlsx
+++ b/Burn Down Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25360" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8220" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -122,167 +122,167 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Job Assignment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Days Left/Effort Left</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Iteration Deadline:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>User Story</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>April 23rd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>May 7th</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create a Web Server Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create a Main Page Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create an App Submission Form Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create a New User Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create a Moderator Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create and Admin Type Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create the Logo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>RV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Login to Your Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Create a Rating System for Apps</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Comment on an App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up Admin approval for all app submissions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set up moderator ability to delete comments</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Video and picture submission for app</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Compare the same app across platforms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Search fuctions of the database</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH, RV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create App Database</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create the HTML Visual of  all Pages</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Velocity: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV, AS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Script Formation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set Up Admin Approval For All App Submissions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set Up Moderator Ability To Delete Comments</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create the Skeleton of the App Page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Submit an App to the Database</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH, RV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create App Database</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create the Skeleton of the App Page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create the HTML Visual of  all Pages</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocity: </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RV, AS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Script Formation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -296,6 +296,10 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -325,11 +329,6 @@
       <color indexed="81"/>
       <name val="Verdana"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Verdana"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -357,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -673,21 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -698,27 +682,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -735,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -746,9 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,28 +731,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -791,13 +762,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -806,13 +777,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1034,13 @@
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,7 +1447,7 @@
   <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:L43"/>
+      <selection activeCell="A35" sqref="A35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
@@ -1482,16 +1456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1534,17 +1508,17 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="W3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="25">
+      <c r="W3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="23">
         <v>0.7</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
     </row>
     <row r="4" spans="1:29" ht="13" customHeight="1">
       <c r="A4" s="15"/>
@@ -1817,82 +1791,82 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="40"/>
-      <c r="AU19" s="40"/>
-      <c r="AV19" s="40"/>
-      <c r="AW19" s="40"/>
-      <c r="AX19" s="40"/>
-      <c r="AY19" s="40"/>
-      <c r="AZ19" s="41"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="39"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="34"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -2003,181 +1977,184 @@
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="34"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="22">
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="21">
         <f>Q22/$AA$3</f>
         <v>115.71428571428572</v>
       </c>
-      <c r="R21" s="22">
-        <f t="shared" ref="R21:AY21" si="0">R22/$AA$3</f>
+      <c r="R21" s="21">
+        <f t="shared" ref="R21:AZ21" si="0">R22/$AA$3</f>
         <v>111.42857142857143</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="21">
         <f t="shared" si="0"/>
         <v>111.42857142857143</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="21">
         <f t="shared" si="0"/>
         <v>115.71428571428572</v>
       </c>
-      <c r="U21" s="22">
+      <c r="U21" s="21">
         <f t="shared" si="0"/>
         <v>111.42857142857143</v>
       </c>
-      <c r="V21" s="22">
+      <c r="V21" s="21">
         <f t="shared" si="0"/>
         <v>92.857142857142861</v>
       </c>
-      <c r="W21" s="22">
+      <c r="W21" s="21">
         <f t="shared" si="0"/>
         <v>82.857142857142861</v>
       </c>
-      <c r="X21" s="22">
+      <c r="X21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="Y21" s="22">
+      <c r="Y21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="Z21" s="22">
+      <c r="Z21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="AA21" s="22">
+      <c r="AA21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="AB21" s="22">
+      <c r="AB21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="AC21" s="22">
+      <c r="AC21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="AD21" s="22">
+      <c r="AD21" s="21">
         <f t="shared" si="0"/>
         <v>72.857142857142861</v>
       </c>
-      <c r="AE21" s="22">
+      <c r="AE21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="AF21" s="22">
+      <c r="AF21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="AG21" s="21">
         <f t="shared" si="0"/>
         <v>74.285714285714292</v>
       </c>
-      <c r="AH21" s="22">
+      <c r="AH21" s="21">
         <f t="shared" si="0"/>
         <v>68.571428571428569</v>
       </c>
-      <c r="AI21" s="22">
+      <c r="AI21" s="21">
         <f t="shared" si="0"/>
         <v>68.571428571428569</v>
       </c>
-      <c r="AJ21" s="22">
+      <c r="AJ21" s="21">
         <f t="shared" si="0"/>
         <v>57.142857142857146</v>
       </c>
-      <c r="AK21" s="22">
+      <c r="AK21" s="21">
         <f t="shared" si="0"/>
         <v>57.142857142857146</v>
       </c>
-      <c r="AL21" s="22">
+      <c r="AL21" s="21">
         <f>AL22/$AA$3</f>
         <v>52.857142857142861</v>
       </c>
-      <c r="AM21" s="22">
+      <c r="AM21" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AN21" s="22">
+      <c r="AN21" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AO21" s="22">
+      <c r="AO21" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AP21" s="22">
+      <c r="AP21" s="21">
         <f t="shared" si="0"/>
         <v>48.571428571428577</v>
       </c>
-      <c r="AQ21" s="22">
+      <c r="AQ21" s="21">
         <f t="shared" si="0"/>
         <v>45.714285714285715</v>
       </c>
-      <c r="AR21" s="22">
+      <c r="AR21" s="21">
         <f t="shared" si="0"/>
         <v>42.857142857142861</v>
       </c>
-      <c r="AS21" s="22">
+      <c r="AS21" s="21">
         <f t="shared" si="0"/>
         <v>38.571428571428577</v>
       </c>
-      <c r="AT21" s="22">
+      <c r="AT21" s="21">
         <f t="shared" si="0"/>
         <v>28.571428571428573</v>
       </c>
-      <c r="AU21" s="22">
+      <c r="AU21" s="21">
         <f t="shared" si="0"/>
         <v>27.142857142857146</v>
       </c>
-      <c r="AV21" s="22">
+      <c r="AV21" s="21">
         <f t="shared" si="0"/>
         <v>22.857142857142858</v>
       </c>
-      <c r="AW21" s="22">
+      <c r="AW21" s="21">
         <f t="shared" si="0"/>
         <v>22.857142857142858</v>
       </c>
-      <c r="AX21" s="22">
+      <c r="AX21" s="21">
         <f t="shared" si="0"/>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="AY21" s="22">
+        <v>20</v>
+      </c>
+      <c r="AY21" s="21">
         <f t="shared" si="0"/>
         <v>15.714285714285715</v>
       </c>
-      <c r="AZ21" s="23"/>
+      <c r="AZ21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:52" ht="14" thickBot="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="17">
         <f t="shared" ref="Q22:W22" si="1">SUM(Q23:Q55)</f>
         <v>81</v>
@@ -2283,7 +2260,7 @@
         <v>34</v>
       </c>
       <c r="AQ22" s="18">
-        <f t="shared" ref="AQ22:AY22" si="3">SUM(AQ23:AQ55)</f>
+        <f t="shared" ref="AQ22:AZ22" si="3">SUM(AQ23:AQ55)</f>
         <v>32</v>
       </c>
       <c r="AR22" s="18">
@@ -2312,35 +2289,38 @@
       </c>
       <c r="AX22" s="18">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY22" s="18">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="AZ22" s="21"/>
+      <c r="AZ22" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="8">
         <v>3</v>
       </c>
@@ -2451,26 +2431,26 @@
       </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
       <c r="Q24" s="8">
         <v>10</v>
       </c>
@@ -2581,26 +2561,26 @@
       </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="27" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="8">
         <v>7</v>
       </c>
@@ -2711,26 +2691,26 @@
       </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="27" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="Q26" s="13">
         <v>3</v>
       </c>
@@ -2841,26 +2821,26 @@
       </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="27" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="Q27" s="13">
         <v>2</v>
       </c>
@@ -2971,26 +2951,26 @@
       </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="27" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
       <c r="Q28" s="13">
         <v>3</v>
       </c>
@@ -3101,26 +3081,26 @@
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="27" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
       <c r="Q29" s="13">
         <v>1</v>
       </c>
@@ -3231,26 +3211,26 @@
       </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="13">
         <v>2</v>
       </c>
@@ -3361,26 +3341,26 @@
       </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
       <c r="Q31" s="13">
         <v>3</v>
       </c>
@@ -3491,26 +3471,26 @@
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
       <c r="Q32" s="13">
         <v>3</v>
       </c>
@@ -3621,26 +3601,26 @@
       </c>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="A33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
       <c r="Q33" s="8">
         <v>7</v>
       </c>
@@ -3751,26 +3731,26 @@
       </c>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="A34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
       <c r="Q34" s="8">
         <v>2</v>
       </c>
@@ -3878,156 +3858,156 @@
       </c>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="13">
+        <v>1</v>
+      </c>
+      <c r="R35" s="13">
+        <v>1</v>
+      </c>
+      <c r="S35" s="13">
+        <v>1</v>
+      </c>
+      <c r="T35" s="13">
+        <v>1</v>
+      </c>
+      <c r="U35" s="13">
+        <v>1</v>
+      </c>
+      <c r="V35" s="13">
+        <v>1</v>
+      </c>
+      <c r="W35" s="13">
+        <v>1</v>
+      </c>
+      <c r="X35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="13">
-        <v>1</v>
-      </c>
-      <c r="R35" s="13">
-        <v>1</v>
-      </c>
-      <c r="S35" s="13">
-        <v>1</v>
-      </c>
-      <c r="T35" s="13">
-        <v>1</v>
-      </c>
-      <c r="U35" s="13">
-        <v>1</v>
-      </c>
-      <c r="V35" s="13">
-        <v>1</v>
-      </c>
-      <c r="W35" s="13">
-        <v>1</v>
-      </c>
-      <c r="X35" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52">
-      <c r="A36" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
       <c r="Q36" s="13">
         <v>5</v>
       </c>
@@ -4138,26 +4118,26 @@
       </c>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
+      <c r="A37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
       <c r="Q37" s="8">
         <v>1</v>
       </c>
@@ -4265,26 +4245,26 @@
       </c>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
+      <c r="A38" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
       <c r="Q38" s="13">
         <v>10</v>
       </c>
@@ -4385,7 +4365,7 @@
         <v>3</v>
       </c>
       <c r="AX38" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY38" s="13">
         <v>2</v>
@@ -4395,407 +4375,407 @@
       </c>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="8">
+        <v>3</v>
+      </c>
+      <c r="R39" s="13">
+        <v>3</v>
+      </c>
+      <c r="S39" s="13">
+        <v>3</v>
+      </c>
+      <c r="T39" s="13">
+        <v>3</v>
+      </c>
+      <c r="U39" s="13">
+        <v>3</v>
+      </c>
+      <c r="V39" s="13">
+        <v>3</v>
+      </c>
+      <c r="W39" s="13">
+        <v>3</v>
+      </c>
+      <c r="X39" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AX39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AY39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="8">
+        <v>2</v>
+      </c>
+      <c r="R40" s="13">
+        <v>2</v>
+      </c>
+      <c r="S40" s="13">
+        <v>2</v>
+      </c>
+      <c r="T40" s="13">
+        <v>2</v>
+      </c>
+      <c r="U40" s="13">
+        <v>2</v>
+      </c>
+      <c r="V40" s="13">
+        <v>2</v>
+      </c>
+      <c r="W40" s="13">
+        <v>2</v>
+      </c>
+      <c r="X40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <v>2</v>
+      </c>
+      <c r="AH40">
+        <v>2</v>
+      </c>
+      <c r="AI40">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AX40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="8">
-        <v>3</v>
-      </c>
-      <c r="R39" s="13">
-        <v>3</v>
-      </c>
-      <c r="S39" s="13">
-        <v>3</v>
-      </c>
-      <c r="T39" s="13">
-        <v>3</v>
-      </c>
-      <c r="U39" s="13">
-        <v>3</v>
-      </c>
-      <c r="V39" s="13">
-        <v>3</v>
-      </c>
-      <c r="W39" s="13">
-        <v>3</v>
-      </c>
-      <c r="X39" s="13">
-        <v>3</v>
-      </c>
-      <c r="Y39" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AI39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AK39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AV39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AW39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AX39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AY39" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52">
-      <c r="A40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="27" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="8">
+        <v>2</v>
+      </c>
+      <c r="R41" s="13">
+        <v>2</v>
+      </c>
+      <c r="S41" s="13">
+        <v>2</v>
+      </c>
+      <c r="T41" s="13">
+        <v>2</v>
+      </c>
+      <c r="U41" s="13">
+        <v>2</v>
+      </c>
+      <c r="V41" s="13">
+        <v>2</v>
+      </c>
+      <c r="W41" s="13">
+        <v>2</v>
+      </c>
+      <c r="X41" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AW41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AX41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AY41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="8">
-        <v>2</v>
-      </c>
-      <c r="R40" s="13">
-        <v>2</v>
-      </c>
-      <c r="S40" s="13">
-        <v>2</v>
-      </c>
-      <c r="T40" s="13">
-        <v>2</v>
-      </c>
-      <c r="U40" s="13">
-        <v>2</v>
-      </c>
-      <c r="V40" s="13">
-        <v>2</v>
-      </c>
-      <c r="W40" s="13">
-        <v>2</v>
-      </c>
-      <c r="X40" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG40">
-        <v>2</v>
-      </c>
-      <c r="AH40">
-        <v>2</v>
-      </c>
-      <c r="AI40">
-        <v>2</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AY40" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:52">
-      <c r="A41" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="8">
-        <v>2</v>
-      </c>
-      <c r="R41" s="13">
-        <v>2</v>
-      </c>
-      <c r="S41" s="13">
-        <v>2</v>
-      </c>
-      <c r="T41" s="13">
-        <v>2</v>
-      </c>
-      <c r="U41" s="13">
-        <v>2</v>
-      </c>
-      <c r="V41" s="13">
-        <v>2</v>
-      </c>
-      <c r="W41" s="13">
-        <v>2</v>
-      </c>
-      <c r="X41" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AD41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AH41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AL41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AM41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AO41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AQ41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AT41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AU41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AV41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AW41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AX41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AY41" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52">
-      <c r="A42" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
       <c r="Q42" s="13">
         <v>6</v>
       </c>
@@ -4906,26 +4886,26 @@
       </c>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="A43" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
       <c r="Q43" s="13">
         <v>5</v>
       </c>
@@ -5036,22 +5016,22 @@
       </c>
     </row>
     <row r="44" spans="1:52">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
@@ -5069,22 +5049,22 @@
       <c r="AE44" s="8"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -5102,22 +5082,22 @@
       <c r="AE45" s="8"/>
     </row>
     <row r="46" spans="1:52">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -5135,22 +5115,22 @@
       <c r="AE46" s="8"/>
     </row>
     <row r="47" spans="1:52">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -5168,22 +5148,22 @@
       <c r="AE47" s="8"/>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -5201,22 +5181,22 @@
       <c r="AE48" s="8"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -5234,22 +5214,22 @@
       <c r="AE49" s="8"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -5267,22 +5247,22 @@
       <c r="AE50" s="8"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -5300,22 +5280,22 @@
       <c r="AE51" s="8"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -5333,22 +5313,22 @@
       <c r="AE52" s="8"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -5366,22 +5346,22 @@
       <c r="AE53" s="8"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -5399,22 +5379,22 @@
       <c r="AE54" s="8"/>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
@@ -5507,8 +5487,9 @@
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="M24:P24"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -5530,20 +5511,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="A1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5570,61 +5551,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="41"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="39"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -5673,22 +5654,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -5752,22 +5733,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -5785,22 +5766,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -5818,22 +5799,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -5851,22 +5832,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -5884,22 +5865,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5917,22 +5898,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5950,22 +5931,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5983,22 +5964,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -6016,22 +5997,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -6049,22 +6030,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -6082,22 +6063,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -6115,22 +6096,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -6148,22 +6129,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -6181,22 +6162,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -6214,22 +6195,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -6247,22 +6228,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6280,22 +6261,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -6313,22 +6294,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6346,22 +6327,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6379,22 +6360,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -6412,22 +6393,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -6445,22 +6426,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6478,22 +6459,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -6511,22 +6492,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -6544,22 +6525,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -6577,22 +6558,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -6610,22 +6591,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -6643,22 +6624,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -6676,22 +6657,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -6709,22 +6690,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -6809,7 +6790,7 @@
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6831,20 +6812,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="A1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -6871,61 +6852,61 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="41"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="39"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="3">
         <v>14</v>
       </c>
@@ -6974,22 +6955,22 @@
       <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:32" ht="14" thickBot="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
       <c r="Q5" s="5">
         <f>SUM(Q6:Q35)</f>
         <v>0</v>
@@ -7053,22 +7034,22 @@
       <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -7086,22 +7067,22 @@
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -7119,22 +7100,22 @@
       <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -7152,22 +7133,22 @@
       <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -7185,22 +7166,22 @@
       <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -7218,22 +7199,22 @@
       <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -7251,22 +7232,22 @@
       <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -7284,22 +7265,22 @@
       <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -7317,22 +7298,22 @@
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -7350,22 +7331,22 @@
       <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -7383,22 +7364,22 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
@@ -7416,22 +7397,22 @@
       <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -7449,22 +7430,22 @@
       <c r="AE17" s="8"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
@@ -7482,22 +7463,22 @@
       <c r="AE18" s="8"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
@@ -7515,22 +7496,22 @@
       <c r="AE19" s="8"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
@@ -7548,22 +7529,22 @@
       <c r="AE20" s="8"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -7581,22 +7562,22 @@
       <c r="AE21" s="8"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -7614,22 +7595,22 @@
       <c r="AE22" s="8"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -7647,22 +7628,22 @@
       <c r="AE23" s="8"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -7680,22 +7661,22 @@
       <c r="AE24" s="8"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -7713,22 +7694,22 @@
       <c r="AE25" s="8"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -7746,22 +7727,22 @@
       <c r="AE26" s="8"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -7779,22 +7760,22 @@
       <c r="AE27" s="8"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
@@ -7812,22 +7793,22 @@
       <c r="AE28" s="8"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
@@ -7845,22 +7826,22 @@
       <c r="AE29" s="8"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
@@ -7878,22 +7859,22 @@
       <c r="AE30" s="8"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -7911,22 +7892,22 @@
       <c r="AE31" s="8"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -7944,22 +7925,22 @@
       <c r="AE32" s="8"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -7977,22 +7958,22 @@
       <c r="AE33" s="8"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -8010,22 +7991,22 @@
       <c r="AE34" s="8"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -8110,7 +8091,7 @@
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="M33:P33"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
